--- a/data/new_posteriors/no_elementary_skills/complex_model/leak/unconstrained/results_model2a_leak_unconstrained.xlsx
+++ b/data/new_posteriors/no_elementary_skills/complex_model/leak/unconstrained/results_model2a_leak_unconstrained.xlsx
@@ -622,31 +622,31 @@
         <v>1.0</v>
       </c>
       <c r="E3" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F3" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G3" t="n" s="25">
-        <v>0.9883554131416555</v>
+        <v>0.9757130020338034</v>
       </c>
       <c r="H3" t="n" s="25">
-        <v>0.6893814482091862</v>
+        <v>0.671184313924174</v>
       </c>
       <c r="I3" t="n" s="25">
-        <v>0.9469107678221125</v>
+        <v>0.9215519828316365</v>
       </c>
       <c r="J3" t="n" s="25">
-        <v>0.999416333065832</v>
+        <v>0.9949136428808449</v>
       </c>
       <c r="K3" t="n" s="25">
-        <v>0.7612554792181757</v>
+        <v>0.7336675299573379</v>
       </c>
       <c r="L3" t="n" s="25">
-        <v>0.8567754086721354</v>
+        <v>0.7599842658525446</v>
       </c>
       <c r="M3" t="n" s="25">
-        <v>1.0</v>
+        <v>0.016818795324507523</v>
       </c>
       <c r="N3" t="n" s="25">
         <v>0.5</v>
@@ -657,31 +657,31 @@
         <v>2.0</v>
       </c>
       <c r="E4" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F4" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G4" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H4" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.6877785975383235</v>
       </c>
       <c r="I4" t="n" s="25">
-        <v>0.9824066548657884</v>
+        <v>0.9724794480464999</v>
       </c>
       <c r="J4" t="n" s="25">
-        <v>0.9999993873374758</v>
+        <v>0.9999911487422105</v>
       </c>
       <c r="K4" t="n" s="25">
-        <v>0.8416687116064825</v>
+        <v>0.8108634850714023</v>
       </c>
       <c r="L4" t="n" s="25">
-        <v>0.9979150679699839</v>
+        <v>0.9948772678961163</v>
       </c>
       <c r="M4" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9994741793896779</v>
       </c>
       <c r="N4" t="n" s="25">
         <v>0.5</v>
@@ -692,31 +692,31 @@
         <v>3.0</v>
       </c>
       <c r="E5" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F5" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G5" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H5" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I5" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9897064843029483</v>
       </c>
       <c r="J5" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9999999545564596</v>
       </c>
       <c r="K5" t="n" s="25">
-        <v>0.9223780837088263</v>
+        <v>0.8955851154788964</v>
       </c>
       <c r="L5" t="n" s="25">
-        <v>0.9998424273350683</v>
+        <v>0.9994040214342771</v>
       </c>
       <c r="M5" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999244938923</v>
       </c>
       <c r="N5" t="n" s="25">
         <v>0.5</v>
@@ -727,31 +727,31 @@
         <v>4.0</v>
       </c>
       <c r="E6" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F6" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G6" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H6" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I6" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9897064843029483</v>
       </c>
       <c r="J6" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9999999545564596</v>
       </c>
       <c r="K6" t="n" s="25">
-        <v>0.9472809491787514</v>
+        <v>0.9245907425397766</v>
       </c>
       <c r="L6" t="n" s="25">
-        <v>0.9999556518416287</v>
+        <v>0.9997920892897154</v>
       </c>
       <c r="M6" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999983543414</v>
       </c>
       <c r="N6" t="n" s="25">
         <v>0.5</v>
@@ -762,31 +762,31 @@
         <v>5.0</v>
       </c>
       <c r="E7" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F7" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G7" t="n" s="25">
-        <v>0.9974992483139908</v>
+        <v>0.9943371509073538</v>
       </c>
       <c r="H7" t="n" s="25">
-        <v>0.7500717068532461</v>
+        <v>0.7275342243675368</v>
       </c>
       <c r="I7" t="n" s="25">
-        <v>0.991751800563428</v>
+        <v>0.98571143618723</v>
       </c>
       <c r="J7" t="n" s="25">
-        <v>0.99999976324172</v>
+        <v>0.9999958652173715</v>
       </c>
       <c r="K7" t="n" s="25">
-        <v>0.915769838259126</v>
+        <v>0.8879373360772103</v>
       </c>
       <c r="L7" t="n" s="25">
-        <v>0.9995099155086666</v>
+        <v>0.9982221412611723</v>
       </c>
       <c r="M7" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999946796529944</v>
       </c>
       <c r="N7" t="n" s="25">
         <v>0.5</v>
@@ -797,31 +797,31 @@
         <v>6.0</v>
       </c>
       <c r="E8" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F8" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G8" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H8" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.6877785975383235</v>
       </c>
       <c r="I8" t="n" s="25">
-        <v>0.9824066548657884</v>
+        <v>0.9724794480464999</v>
       </c>
       <c r="J8" t="n" s="25">
-        <v>0.9999993873374758</v>
+        <v>0.9999911487422105</v>
       </c>
       <c r="K8" t="n" s="25">
-        <v>0.6814231609075969</v>
+        <v>0.6638635943228968</v>
       </c>
       <c r="L8" t="n" s="25">
-        <v>0.9697745336480498</v>
+        <v>0.9558537645833332</v>
       </c>
       <c r="M8" t="n" s="25">
-        <v>0.9416196707782097</v>
+        <v>0.6365450306028531</v>
       </c>
       <c r="N8" t="n" s="25">
         <v>0.5</v>
@@ -832,31 +832,31 @@
         <v>7.0</v>
       </c>
       <c r="E9" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F9" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G9" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H9" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I9" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9897064843029483</v>
       </c>
       <c r="J9" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9999999545564596</v>
       </c>
       <c r="K9" t="n" s="25">
-        <v>0.9672477334122705</v>
+        <v>0.9490286864729502</v>
       </c>
       <c r="L9" t="n" s="25">
-        <v>0.9999894356977937</v>
+        <v>0.9999335200640522</v>
       </c>
       <c r="M9" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999304292</v>
       </c>
       <c r="N9" t="n" s="25">
         <v>0.5</v>
@@ -867,31 +867,31 @@
         <v>8.0</v>
       </c>
       <c r="E10" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F10" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G10" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H10" t="n" s="25">
-        <v>0.7278166630352282</v>
+        <v>0.7067659170765386</v>
       </c>
       <c r="I10" t="n" s="25">
-        <v>0.9877312527342245</v>
+        <v>0.9798620868090402</v>
       </c>
       <c r="J10" t="n" s="25">
-        <v>0.9999999083466489</v>
+        <v>0.9999983422961309</v>
       </c>
       <c r="K10" t="n" s="25">
-        <v>0.9037469453370062</v>
+        <v>0.874820040956342</v>
       </c>
       <c r="L10" t="n" s="25">
-        <v>0.9996422998855319</v>
+        <v>0.9988033639153949</v>
       </c>
       <c r="M10" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999976624928194</v>
       </c>
       <c r="N10" t="n" s="25">
         <v>0.5</v>
@@ -902,31 +902,31 @@
         <v>9.0</v>
       </c>
       <c r="E11" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F11" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G11" t="n" s="25">
-        <v>0.9910420422372933</v>
+        <v>0.9832213444640995</v>
       </c>
       <c r="H11" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I11" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9897064843029483</v>
       </c>
       <c r="J11" t="n" s="25">
-        <v>0.99998712296692</v>
+        <v>0.9998617014489044</v>
       </c>
       <c r="K11" t="n" s="25">
-        <v>0.9451462410060893</v>
+        <v>0.9222754210685966</v>
       </c>
       <c r="L11" t="n" s="25">
-        <v>0.999046722020628</v>
+        <v>0.9956839787868771</v>
       </c>
       <c r="M11" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9997680379196029</v>
       </c>
       <c r="N11" t="n" s="25">
         <v>0.5</v>
@@ -937,31 +937,31 @@
         <v>10.0</v>
       </c>
       <c r="E12" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F12" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G12" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H12" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I12" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9897064843029483</v>
       </c>
       <c r="J12" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9999999545564596</v>
       </c>
       <c r="K12" t="n" s="25">
-        <v>0.9672477334122705</v>
+        <v>0.9490286864729502</v>
       </c>
       <c r="L12" t="n" s="25">
-        <v>0.9999894356977937</v>
+        <v>0.9999335200640522</v>
       </c>
       <c r="M12" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999304292</v>
       </c>
       <c r="N12" t="n" s="25">
         <v>0.5</v>
@@ -972,31 +972,31 @@
         <v>11.0</v>
       </c>
       <c r="E13" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F13" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G13" t="n" s="25">
-        <v>0.4411193496190816</v>
+        <v>0.39742217240526184</v>
       </c>
       <c r="H13" t="n" s="25">
-        <v>0.7497457157780186</v>
+        <v>0.7272724739978639</v>
       </c>
       <c r="I13" t="n" s="25">
-        <v>0.9647685799895255</v>
+        <v>0.940158422169372</v>
       </c>
       <c r="J13" t="n" s="25">
-        <v>0.13881108340784376</v>
+        <v>0.07089020505487231</v>
       </c>
       <c r="K13" t="n" s="25">
-        <v>0.9815351922985185</v>
+        <v>0.9689914152152916</v>
       </c>
       <c r="L13" t="n" s="25">
-        <v>0.9996127726336969</v>
+        <v>0.9968051317809954</v>
       </c>
       <c r="M13" t="n" s="25">
-        <v>1.0</v>
+        <v>0.010177661177066219</v>
       </c>
       <c r="N13" t="n" s="25">
         <v>0.5</v>
@@ -1007,31 +1007,31 @@
         <v>12.0</v>
       </c>
       <c r="E14" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F14" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G14" t="n" s="25">
-        <v>0.87689324918373</v>
+        <v>0.8506602305234873</v>
       </c>
       <c r="H14" t="n" s="25">
-        <v>0.7931479581128249</v>
+        <v>0.7684024484998381</v>
       </c>
       <c r="I14" t="n" s="25">
-        <v>0.9965176244597276</v>
+        <v>0.9932253510303038</v>
       </c>
       <c r="J14" t="n" s="25">
-        <v>0.358028192506613</v>
+        <v>0.16328230737966504</v>
       </c>
       <c r="K14" t="n" s="25">
-        <v>0.8418325169226019</v>
+        <v>0.8135382027819636</v>
       </c>
       <c r="L14" t="n" s="25">
-        <v>0.29780230433941896</v>
+        <v>0.15265950525083088</v>
       </c>
       <c r="M14" t="n" s="25">
-        <v>3.309500630556789E-7</v>
+        <v>1.0053530454647334E-7</v>
       </c>
       <c r="N14" t="n" s="25">
         <v>0.5</v>
@@ -1042,31 +1042,31 @@
         <v>13.0</v>
       </c>
       <c r="E15" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F15" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G15" t="n" s="25">
-        <v>0.9926171230093359</v>
+        <v>0.9855727272330322</v>
       </c>
       <c r="H15" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.6877785975383235</v>
       </c>
       <c r="I15" t="n" s="25">
-        <v>0.9824066548657884</v>
+        <v>0.9724794480464999</v>
       </c>
       <c r="J15" t="n" s="25">
-        <v>0.9717912241854417</v>
+        <v>0.8576333673780031</v>
       </c>
       <c r="K15" t="n" s="25">
-        <v>0.8416687116064825</v>
+        <v>0.8108634850714023</v>
       </c>
       <c r="L15" t="n" s="25">
-        <v>0.868354302384519</v>
+        <v>0.7279972637462558</v>
       </c>
       <c r="M15" t="n" s="25">
-        <v>1.0</v>
+        <v>0.0075768362027123625</v>
       </c>
       <c r="N15" t="n" s="25">
         <v>0.5</v>
@@ -1077,31 +1077,31 @@
         <v>14.0</v>
       </c>
       <c r="E16" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F16" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G16" t="n" s="25">
-        <v>0.9696804031741598</v>
+        <v>0.954100780100236</v>
       </c>
       <c r="H16" t="n" s="25">
-        <v>0.7931479581128249</v>
+        <v>0.7684024484998381</v>
       </c>
       <c r="I16" t="n" s="25">
-        <v>0.9965176244597276</v>
+        <v>0.9932253510303038</v>
       </c>
       <c r="J16" t="n" s="25">
-        <v>0.999998560334735</v>
+        <v>0.9999885647618564</v>
       </c>
       <c r="K16" t="n" s="25">
-        <v>0.9710656967085763</v>
+        <v>0.9542211894090447</v>
       </c>
       <c r="L16" t="n" s="25">
-        <v>0.9999885044524128</v>
+        <v>0.9999233117291682</v>
       </c>
       <c r="M16" t="n" s="25">
-        <v>0.9998296764561015</v>
+        <v>0.996605532927706</v>
       </c>
       <c r="N16" t="n" s="25">
         <v>0.5</v>
@@ -1112,31 +1112,31 @@
         <v>15.0</v>
       </c>
       <c r="E17" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F17" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G17" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H17" t="n" s="25">
-        <v>0.7302888589808976</v>
+        <v>0.7090663946807574</v>
       </c>
       <c r="I17" t="n" s="25">
-        <v>0.9882923254948467</v>
+        <v>0.980661148403292</v>
       </c>
       <c r="J17" t="n" s="25">
-        <v>0.9999999311797443</v>
+        <v>0.999998704391047</v>
       </c>
       <c r="K17" t="n" s="25">
-        <v>0.8989287692497147</v>
+        <v>0.8702217309044178</v>
       </c>
       <c r="L17" t="n" s="25">
-        <v>0.9995923653609624</v>
+        <v>0.99869768332977</v>
       </c>
       <c r="M17" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999978525573912</v>
       </c>
       <c r="N17" t="n" s="25">
         <v>0.5</v>
@@ -1147,31 +1147,31 @@
         <v>16.0</v>
       </c>
       <c r="E18" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F18" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G18" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H18" t="n" s="25">
-        <v>0.7931479581128249</v>
+        <v>0.7684024484998381</v>
       </c>
       <c r="I18" t="n" s="25">
-        <v>0.9965176244597276</v>
+        <v>0.9932253510303038</v>
       </c>
       <c r="J18" t="n" s="25">
-        <v>0.9999999998144883</v>
+        <v>0.999999992401329</v>
       </c>
       <c r="K18" t="n" s="25">
-        <v>0.9698714750294763</v>
+        <v>0.9528828443980266</v>
       </c>
       <c r="L18" t="n" s="25">
-        <v>0.999992503127245</v>
+        <v>0.9999519431511245</v>
       </c>
       <c r="M18" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999892084</v>
       </c>
       <c r="N18" t="n" s="25">
         <v>0.5</v>
@@ -1182,31 +1182,31 @@
         <v>17.0</v>
       </c>
       <c r="E19" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F19" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G19" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H19" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I19" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9897064843029483</v>
       </c>
       <c r="J19" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9999999545564596</v>
       </c>
       <c r="K19" t="n" s="25">
-        <v>0.9472809491787514</v>
+        <v>0.9245907425397766</v>
       </c>
       <c r="L19" t="n" s="25">
-        <v>0.9999556518416287</v>
+        <v>0.9997920892897154</v>
       </c>
       <c r="M19" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999983543414</v>
       </c>
       <c r="N19" t="n" s="25">
         <v>0.5</v>
@@ -1217,31 +1217,31 @@
         <v>18.0</v>
       </c>
       <c r="E20" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F20" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G20" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H20" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I20" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9897064843029483</v>
       </c>
       <c r="J20" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9999999545564596</v>
       </c>
       <c r="K20" t="n" s="25">
-        <v>0.9223780837088263</v>
+        <v>0.8955851154788964</v>
       </c>
       <c r="L20" t="n" s="25">
-        <v>0.9998424273350683</v>
+        <v>0.9994040214342771</v>
       </c>
       <c r="M20" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999244938923</v>
       </c>
       <c r="N20" t="n" s="25">
         <v>0.5</v>
@@ -1252,31 +1252,31 @@
         <v>19.0</v>
       </c>
       <c r="E21" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F21" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G21" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H21" t="n" s="25">
-        <v>0.7931479581128249</v>
+        <v>0.7684024484998381</v>
       </c>
       <c r="I21" t="n" s="25">
-        <v>0.9965176244597276</v>
+        <v>0.9932253510303038</v>
       </c>
       <c r="J21" t="n" s="25">
-        <v>0.9999999998144883</v>
+        <v>0.999999992401329</v>
       </c>
       <c r="K21" t="n" s="25">
-        <v>0.9806757238252186</v>
+        <v>0.9675287573611617</v>
       </c>
       <c r="L21" t="n" s="25">
-        <v>0.9999980589773848</v>
+        <v>0.9999839533584576</v>
       </c>
       <c r="M21" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999996725</v>
       </c>
       <c r="N21" t="n" s="25">
         <v>0.5</v>
@@ -1287,31 +1287,31 @@
         <v>20.0</v>
       </c>
       <c r="E22" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F22" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G22" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H22" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I22" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9897064843029483</v>
       </c>
       <c r="J22" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9999999545564596</v>
       </c>
       <c r="K22" t="n" s="25">
-        <v>0.9493238177522928</v>
+        <v>0.9266708709195036</v>
       </c>
       <c r="L22" t="n" s="25">
-        <v>0.999959198170099</v>
+        <v>0.9998009243966844</v>
       </c>
       <c r="M22" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999977080539</v>
       </c>
       <c r="N22" t="n" s="25">
         <v>0.5</v>
@@ -1322,31 +1322,31 @@
         <v>21.0</v>
       </c>
       <c r="E23" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F23" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G23" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H23" t="n" s="25">
-        <v>0.7931479581128249</v>
+        <v>0.7684024484998381</v>
       </c>
       <c r="I23" t="n" s="25">
-        <v>0.9965176244597276</v>
+        <v>0.9932253510303038</v>
       </c>
       <c r="J23" t="n" s="25">
-        <v>0.9999999998144883</v>
+        <v>0.999999992401329</v>
       </c>
       <c r="K23" t="n" s="25">
-        <v>0.953314116673262</v>
+        <v>0.9320946339590256</v>
       </c>
       <c r="L23" t="n" s="25">
-        <v>0.9999710450528005</v>
+        <v>0.9998560874401724</v>
       </c>
       <c r="M23" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999996444827</v>
       </c>
       <c r="N23" t="n" s="25">
         <v>0.5</v>
@@ -1357,31 +1357,31 @@
         <v>22.0</v>
       </c>
       <c r="E24" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F24" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G24" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H24" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I24" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9897064843029483</v>
       </c>
       <c r="J24" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9999999545564596</v>
       </c>
       <c r="K24" t="n" s="25">
-        <v>0.9493238177522928</v>
+        <v>0.9266708709195036</v>
       </c>
       <c r="L24" t="n" s="25">
-        <v>0.999959198170099</v>
+        <v>0.9998009243966844</v>
       </c>
       <c r="M24" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999977080539</v>
       </c>
       <c r="N24" t="n" s="25">
         <v>0.5</v>
@@ -1392,31 +1392,31 @@
         <v>23.0</v>
       </c>
       <c r="E25" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F25" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G25" t="n" s="25">
-        <v>0.9974992483139908</v>
+        <v>0.9943371509073538</v>
       </c>
       <c r="H25" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I25" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9897064843029483</v>
       </c>
       <c r="J25" t="n" s="25">
-        <v>0.9999999748650942</v>
+        <v>0.9999994419885246</v>
       </c>
       <c r="K25" t="n" s="25">
-        <v>0.9223780837088263</v>
+        <v>0.8955851154788964</v>
       </c>
       <c r="L25" t="n" s="25">
-        <v>0.9996499059465723</v>
+        <v>0.9986765671998825</v>
       </c>
       <c r="M25" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999990800867057</v>
       </c>
       <c r="N25" t="n" s="25">
         <v>0.5</v>
@@ -1427,31 +1427,31 @@
         <v>24.0</v>
       </c>
       <c r="E26" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F26" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G26" t="n" s="25">
-        <v>0.29613022584272053</v>
+        <v>0.22396043366908017</v>
       </c>
       <c r="H26" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.6877785975383235</v>
       </c>
       <c r="I26" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.5886682142372878</v>
       </c>
       <c r="J26" t="n" s="25">
-        <v>0.19692565483932462</v>
+        <v>0.048234039917187575</v>
       </c>
       <c r="K26" t="n" s="25">
-        <v>0.7638371923193016</v>
+        <v>0.738439927968699</v>
       </c>
       <c r="L26" t="n" s="25">
-        <v>0.024384285222313583</v>
+        <v>0.01342850712574469</v>
       </c>
       <c r="M26" t="n" s="25">
-        <v>1.0</v>
+        <v>7.262235665687689E-7</v>
       </c>
       <c r="N26" t="n" s="25">
         <v>0.5</v>
@@ -1462,31 +1462,31 @@
         <v>25.0</v>
       </c>
       <c r="E27" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F27" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G27" t="n" s="25">
-        <v>0.6368890950257642</v>
+        <v>0.5944253010066147</v>
       </c>
       <c r="H27" t="n" s="25">
-        <v>0.7738750602538691</v>
+        <v>0.7499250842137168</v>
       </c>
       <c r="I27" t="n" s="25">
-        <v>0.9869651998167616</v>
+        <v>0.9761139398357631</v>
       </c>
       <c r="J27" t="n" s="25">
-        <v>0.008484590129866956</v>
+        <v>0.0037960042518229613</v>
       </c>
       <c r="K27" t="n" s="25">
-        <v>0.8834945618414937</v>
+        <v>0.854548196770559</v>
       </c>
       <c r="L27" t="n" s="25">
-        <v>0.22120227602058087</v>
+        <v>0.08922280802955625</v>
       </c>
       <c r="M27" t="n" s="25">
-        <v>1.834558482560289E-8</v>
+        <v>5.3428866314159455E-9</v>
       </c>
       <c r="N27" t="n" s="25">
         <v>0.5</v>
@@ -1497,31 +1497,31 @@
         <v>26.0</v>
       </c>
       <c r="E28" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F28" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G28" t="n" s="25">
-        <v>0.9974992483139908</v>
+        <v>0.9943371509073538</v>
       </c>
       <c r="H28" t="n" s="25">
-        <v>0.7309730452741708</v>
+        <v>0.709610724851353</v>
       </c>
       <c r="I28" t="n" s="25">
-        <v>0.9880083453771463</v>
+        <v>0.9801968823191296</v>
       </c>
       <c r="J28" t="n" s="25">
-        <v>0.9999977698590251</v>
+        <v>0.9999693625737393</v>
       </c>
       <c r="K28" t="n" s="25">
-        <v>0.9086547221365476</v>
+        <v>0.8798045793324721</v>
       </c>
       <c r="L28" t="n" s="25">
-        <v>0.9993139861772815</v>
+        <v>0.9976120525928277</v>
       </c>
       <c r="M28" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999692302561395</v>
       </c>
       <c r="N28" t="n" s="25">
         <v>0.5</v>
@@ -1532,31 +1532,31 @@
         <v>27.0</v>
       </c>
       <c r="E29" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F29" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G29" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H29" t="n" s="25">
-        <v>0.6645296339106109</v>
+        <v>0.6484987364743885</v>
       </c>
       <c r="I29" t="n" s="25">
-        <v>0.9632611255839563</v>
+        <v>0.9478926713020526</v>
       </c>
       <c r="J29" t="n" s="25">
-        <v>0.9999456431867668</v>
+        <v>0.999514241920752</v>
       </c>
       <c r="K29" t="n" s="25">
-        <v>0.7219382800213777</v>
+        <v>0.6998540270817238</v>
       </c>
       <c r="L29" t="n" s="25">
-        <v>0.9816181843643321</v>
+        <v>0.9702152544624391</v>
       </c>
       <c r="M29" t="n" s="25">
-        <v>1.0</v>
+        <v>0.7758954924332844</v>
       </c>
       <c r="N29" t="n" s="25">
         <v>0.5</v>
@@ -1567,31 +1567,31 @@
         <v>28.0</v>
       </c>
       <c r="E30" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F30" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G30" t="n" s="25">
-        <v>0.1011494385122465</v>
+        <v>0.07493810175283903</v>
       </c>
       <c r="H30" t="n" s="25">
-        <v>0.6645296339106109</v>
+        <v>0.6484987364743885</v>
       </c>
       <c r="I30" t="n" s="25">
-        <v>0.20644951096542996</v>
+        <v>0.15290258271214408</v>
       </c>
       <c r="J30" t="n" s="25">
-        <v>3.906956709605742E-6</v>
+        <v>1.5497989266068742E-6</v>
       </c>
       <c r="K30" t="n" s="25">
-        <v>0.6416500389648636</v>
+        <v>0.6276236141834869</v>
       </c>
       <c r="L30" t="n" s="25">
-        <v>5.3277235272825715E-5</v>
+        <v>3.901718641329249E-5</v>
       </c>
       <c r="M30" t="n" s="25">
-        <v>1.8057190847614848E-13</v>
+        <v>8.656658050518588E-14</v>
       </c>
       <c r="N30" t="n" s="25">
         <v>0.5</v>
@@ -1602,31 +1602,31 @@
         <v>29.0</v>
       </c>
       <c r="E31" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F31" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G31" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H31" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I31" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9897064843029483</v>
       </c>
       <c r="J31" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9999999545564596</v>
       </c>
       <c r="K31" t="n" s="25">
-        <v>0.9659014641828572</v>
+        <v>0.9475468830136864</v>
       </c>
       <c r="L31" t="n" s="25">
-        <v>0.9999885174615989</v>
+        <v>0.9999305692318572</v>
       </c>
       <c r="M31" t="n" s="25">
-        <v>1.0</v>
+        <v>0.999999999950047</v>
       </c>
       <c r="N31" t="n" s="25">
         <v>0.5</v>
@@ -1637,31 +1637,31 @@
         <v>30.0</v>
       </c>
       <c r="E32" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F32" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G32" t="n" s="25">
-        <v>0.02750885747928962</v>
+        <v>0.02199515649972421</v>
       </c>
       <c r="H32" t="n" s="25">
-        <v>0.6645296339106109</v>
+        <v>0.6484987364743885</v>
       </c>
       <c r="I32" t="n" s="25">
-        <v>0.11510660682686291</v>
+        <v>0.08277992339822292</v>
       </c>
       <c r="J32" t="n" s="25">
-        <v>4.7316906154208714E-7</v>
+        <v>2.1592840947596094E-7</v>
       </c>
       <c r="K32" t="n" s="25">
-        <v>0.6416500389648636</v>
+        <v>0.6276236141834869</v>
       </c>
       <c r="L32" t="n" s="25">
-        <v>2.2605463188187534E-5</v>
+        <v>1.655480667329286E-5</v>
       </c>
       <c r="M32" t="n" s="25">
-        <v>3.966340956757556E-14</v>
+        <v>2.0133898887899407E-14</v>
       </c>
       <c r="N32" t="n" s="25">
         <v>0.5</v>
@@ -1672,31 +1672,31 @@
         <v>31.0</v>
       </c>
       <c r="E33" t="n" s="25">
-        <v>0.024421178510121423</v>
+        <v>0.024097450899593986</v>
       </c>
       <c r="F33" t="n" s="25">
-        <v>4.7819516732012493E-4</v>
+        <v>4.4380247120443835E-4</v>
       </c>
       <c r="G33" t="n" s="25">
-        <v>1.2876862384361813E-5</v>
+        <v>1.1459546276416614E-5</v>
       </c>
       <c r="H33" t="n" s="25">
-        <v>0.0027568802536832807</v>
+        <v>0.0025333199725365847</v>
       </c>
       <c r="I33" t="n" s="25">
-        <v>4.336038277659511E-5</v>
+        <v>2.893967595011288E-5</v>
       </c>
       <c r="J33" t="n" s="25">
-        <v>2.4809094450194917E-10</v>
+        <v>1.3661352148635515E-10</v>
       </c>
       <c r="K33" t="n" s="25">
-        <v>1.2264683613412967E-4</v>
+        <v>1.0667962260943292E-4</v>
       </c>
       <c r="L33" t="n" s="25">
-        <v>4.954567889065311E-10</v>
+        <v>2.7328743130220875E-10</v>
       </c>
       <c r="M33" t="n" s="25">
-        <v>1.2672655267941095E-18</v>
+        <v>5.902378625644549E-19</v>
       </c>
       <c r="N33" t="n" s="25">
         <v>0.5</v>
@@ -1707,31 +1707,31 @@
         <v>32.0</v>
       </c>
       <c r="E34" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F34" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G34" t="n" s="25">
-        <v>0.0881637356766583</v>
+        <v>0.07475365191249424</v>
       </c>
       <c r="H34" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.6877785975383235</v>
       </c>
       <c r="I34" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.5886682142372878</v>
       </c>
       <c r="J34" t="n" s="25">
-        <v>1.2938718099686379E-5</v>
+        <v>6.755583018031072E-6</v>
       </c>
       <c r="K34" t="n" s="25">
-        <v>0.7712721347904135</v>
+        <v>0.7442344979041969</v>
       </c>
       <c r="L34" t="n" s="25">
-        <v>8.31272974653041E-4</v>
+        <v>4.3515993146467705E-4</v>
       </c>
       <c r="M34" t="n" s="25">
-        <v>2.1279757083723755E-12</v>
+        <v>9.40254314243606E-13</v>
       </c>
       <c r="N34" t="n" s="25">
         <v>0.5</v>
@@ -1742,31 +1742,31 @@
         <v>33.0</v>
       </c>
       <c r="E35" t="n" s="25">
-        <v>0.002935976608536877</v>
+        <v>0.0029081686307148636</v>
       </c>
       <c r="F35" t="n" s="25">
-        <v>2.8086353577806595E-5</v>
+        <v>2.6363959297103435E-5</v>
       </c>
       <c r="G35" t="n" s="25">
-        <v>6.319107595703942E-7</v>
+        <v>5.411961757810798E-7</v>
       </c>
       <c r="H35" t="n" s="25">
-        <v>3.878972804261066E-5</v>
+        <v>3.614297178463916E-5</v>
       </c>
       <c r="I35" t="n" s="25">
-        <v>6.443590889524473E-9</v>
+        <v>4.691049607921489E-9</v>
       </c>
       <c r="J35" t="n" s="25">
-        <v>7.163893828500266E-15</v>
+        <v>4.040255321406736E-15</v>
       </c>
       <c r="K35" t="n" s="25">
-        <v>2.0248868330069045E-7</v>
+        <v>1.9085842590437068E-7</v>
       </c>
       <c r="L35" t="n" s="25">
-        <v>8.043943187358349E-15</v>
+        <v>6.185295365216467E-15</v>
       </c>
       <c r="M35" t="n" s="25">
-        <v>1.2433714955852805E-23</v>
+        <v>7.633030215107939E-24</v>
       </c>
       <c r="N35" t="n" s="25">
         <v>0.5</v>
@@ -1777,31 +1777,31 @@
         <v>34.0</v>
       </c>
       <c r="E36" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F36" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G36" t="n" s="25">
-        <v>0.0881637356766583</v>
+        <v>0.07475365191249424</v>
       </c>
       <c r="H36" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.6877785975383235</v>
       </c>
       <c r="I36" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.5886682142372878</v>
       </c>
       <c r="J36" t="n" s="25">
-        <v>5.175527418688726E-6</v>
+        <v>2.7022441603532854E-6</v>
       </c>
       <c r="K36" t="n" s="25">
-        <v>0.6814231609075969</v>
+        <v>0.6638635943228968</v>
       </c>
       <c r="L36" t="n" s="25">
-        <v>9.692220610413343E-5</v>
+        <v>6.540892221582013E-5</v>
       </c>
       <c r="M36" t="n" s="25">
-        <v>1.11568022785359E-13</v>
+        <v>6.357484659713749E-14</v>
       </c>
       <c r="N36" t="n" s="25">
         <v>0.5</v>
@@ -1812,31 +1812,31 @@
         <v>35.0</v>
       </c>
       <c r="E37" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F37" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G37" t="n" s="25">
-        <v>0.0881637356766583</v>
+        <v>0.07475365191249424</v>
       </c>
       <c r="H37" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.6877785975383235</v>
       </c>
       <c r="I37" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.5886682142372878</v>
       </c>
       <c r="J37" t="n" s="25">
-        <v>1.2938718099686379E-5</v>
+        <v>6.755583018031072E-6</v>
       </c>
       <c r="K37" t="n" s="25">
-        <v>0.7712721347904135</v>
+        <v>0.7442344979041969</v>
       </c>
       <c r="L37" t="n" s="25">
-        <v>8.31272974653041E-4</v>
+        <v>4.3515993146467705E-4</v>
       </c>
       <c r="M37" t="n" s="25">
-        <v>2.1279757083723755E-12</v>
+        <v>9.40254314243606E-13</v>
       </c>
       <c r="N37" t="n" s="25">
         <v>0.5</v>
@@ -1847,31 +1847,31 @@
         <v>36.0</v>
       </c>
       <c r="E38" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F38" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G38" t="n" s="25">
-        <v>0.39648122107635425</v>
+        <v>0.32049123910227</v>
       </c>
       <c r="H38" t="n" s="25">
-        <v>0.7365254207492108</v>
+        <v>0.7146884555217988</v>
       </c>
       <c r="I38" t="n" s="25">
-        <v>0.8806137339906287</v>
+        <v>0.8135865880856541</v>
       </c>
       <c r="J38" t="n" s="25">
-        <v>0.7636137188804599</v>
+        <v>0.424977994752477</v>
       </c>
       <c r="K38" t="n" s="25">
-        <v>0.9013303209989715</v>
+        <v>0.8727888012082835</v>
       </c>
       <c r="L38" t="n" s="25">
-        <v>0.7995215462381082</v>
+        <v>0.5519327887716114</v>
       </c>
       <c r="M38" t="n" s="25">
-        <v>6.174988617477205E-5</v>
+        <v>9.44493566819113E-6</v>
       </c>
       <c r="N38" t="n" s="25">
         <v>0.5</v>
@@ -1882,31 +1882,31 @@
         <v>37.0</v>
       </c>
       <c r="E39" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F39" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G39" t="n" s="25">
-        <v>0.0881637356766583</v>
+        <v>0.07475365191249424</v>
       </c>
       <c r="H39" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.6877785975383235</v>
       </c>
       <c r="I39" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.5886682142372878</v>
       </c>
       <c r="J39" t="n" s="25">
-        <v>1.2938718099686382E-5</v>
+        <v>6.755583018031072E-6</v>
       </c>
       <c r="K39" t="n" s="25">
-        <v>0.7712721347904135</v>
+        <v>0.744234497904197</v>
       </c>
       <c r="L39" t="n" s="25">
-        <v>8.312729746530416E-4</v>
+        <v>4.351599314646771E-4</v>
       </c>
       <c r="M39" t="n" s="25">
-        <v>2.1279757083723755E-12</v>
+        <v>9.402543142436057E-13</v>
       </c>
       <c r="N39" t="n" s="25">
         <v>0.5</v>
@@ -1917,31 +1917,31 @@
         <v>38.0</v>
       </c>
       <c r="E40" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F40" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G40" t="n" s="25">
-        <v>0.037235169242020826</v>
+        <v>0.03130558484023615</v>
       </c>
       <c r="H40" t="n" s="25">
-        <v>0.6872852445581443</v>
+        <v>0.6692773330273942</v>
       </c>
       <c r="I40" t="n" s="25">
-        <v>0.2786431742007914</v>
+        <v>0.20363659580240265</v>
       </c>
       <c r="J40" t="n" s="25">
-        <v>5.525060087142682E-7</v>
+        <v>3.0176708348655837E-7</v>
       </c>
       <c r="K40" t="n" s="25">
-        <v>0.7589551846169142</v>
+        <v>0.732401716790364</v>
       </c>
       <c r="L40" t="n" s="25">
-        <v>2.534326775324425E-4</v>
+        <v>1.3694877239850872E-4</v>
       </c>
       <c r="M40" t="n" s="25">
-        <v>2.5935493657705205E-13</v>
+        <v>1.1832731816668732E-13</v>
       </c>
       <c r="N40" t="n" s="25">
         <v>0.5</v>
@@ -1952,31 +1952,31 @@
         <v>39.0</v>
       </c>
       <c r="E41" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F41" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G41" t="n" s="25">
-        <v>0.9852952486831877</v>
+        <v>0.9719086832662447</v>
       </c>
       <c r="H41" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I41" t="n" s="25">
-        <v>0.9887305746128856</v>
+        <v>0.9796227224324021</v>
       </c>
       <c r="J41" t="n" s="25">
-        <v>0.9999998120782364</v>
+        <v>0.9999970281885712</v>
       </c>
       <c r="K41" t="n" s="25">
-        <v>0.9672477334122705</v>
+        <v>0.9490286864729502</v>
       </c>
       <c r="L41" t="n" s="25">
-        <v>0.9999679876496359</v>
+        <v>0.999798572836157</v>
       </c>
       <c r="M41" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999994604156995</v>
       </c>
       <c r="N41" t="n" s="25">
         <v>0.5</v>
@@ -1987,31 +1987,31 @@
         <v>40.0</v>
       </c>
       <c r="E42" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F42" t="n" s="25">
-        <v>0.07717555337529731</v>
+        <v>0.07003939156538434</v>
       </c>
       <c r="G42" t="n" s="25">
-        <v>0.006725778953112904</v>
+        <v>0.004986430243457169</v>
       </c>
       <c r="H42" t="n" s="25">
-        <v>0.07622870617237251</v>
+        <v>0.06938695960489577</v>
       </c>
       <c r="I42" t="n" s="25">
-        <v>8.248694009514753E-5</v>
+        <v>5.7018987380547206E-5</v>
       </c>
       <c r="J42" t="n" s="25">
-        <v>2.2635511374478435E-10</v>
+        <v>1.1011088229613271E-10</v>
       </c>
       <c r="K42" t="n" s="25">
-        <v>0.0013851833080343286</v>
+        <v>0.0012673619159154288</v>
       </c>
       <c r="L42" t="n" s="25">
-        <v>6.960697248422058E-10</v>
+        <v>5.055689542945119E-10</v>
       </c>
       <c r="M42" t="n" s="25">
-        <v>2.506497550619604E-18</v>
+        <v>1.338702027994931E-18</v>
       </c>
       <c r="N42" t="n" s="25">
         <v>0.5</v>
@@ -2022,31 +2022,31 @@
         <v>41.0</v>
       </c>
       <c r="E43" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F43" t="n" s="25">
-        <v>0.76664393192103</v>
+        <v>0.7429902792097743</v>
       </c>
       <c r="G43" t="n" s="25">
-        <v>0.16422971940794562</v>
+        <v>0.14222736243438455</v>
       </c>
       <c r="H43" t="n" s="25">
-        <v>0.7365254207492108</v>
+        <v>0.7146884555217988</v>
       </c>
       <c r="I43" t="n" s="25">
-        <v>0.8330511839473467</v>
+        <v>0.755868677274885</v>
       </c>
       <c r="J43" t="n" s="25">
-        <v>5.7094268787240836E-5</v>
+        <v>2.922991818252492E-5</v>
       </c>
       <c r="K43" t="n" s="25">
-        <v>0.7930472218802036</v>
+        <v>0.7651263525357115</v>
       </c>
       <c r="L43" t="n" s="25">
-        <v>3.003886138607541E-4</v>
+        <v>1.8644027754108802E-4</v>
       </c>
       <c r="M43" t="n" s="25">
-        <v>1.3973753927085186E-12</v>
+        <v>7.322602090179903E-13</v>
       </c>
       <c r="N43" t="n" s="25">
         <v>0.5</v>
@@ -2057,31 +2057,31 @@
         <v>42.0</v>
       </c>
       <c r="E44" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F44" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G44" t="n" s="25">
-        <v>0.1225675643728686</v>
+        <v>0.09995929292477602</v>
       </c>
       <c r="H44" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.6877785975383235</v>
       </c>
       <c r="I44" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.5886682142372878</v>
       </c>
       <c r="J44" t="n" s="25">
-        <v>1.6785572497078578E-4</v>
+        <v>6.987314642695109E-5</v>
       </c>
       <c r="K44" t="n" s="25">
-        <v>0.7712721347904135</v>
+        <v>0.7442344979041969</v>
       </c>
       <c r="L44" t="n" s="25">
-        <v>0.002371404684702593</v>
+        <v>0.001242310111816148</v>
       </c>
       <c r="M44" t="n" s="25">
-        <v>5.792567521272705E-11</v>
+        <v>2.1010382923556516E-11</v>
       </c>
       <c r="N44" t="n" s="25">
         <v>0.5</v>
@@ -2092,31 +2092,31 @@
         <v>43.0</v>
       </c>
       <c r="E45" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F45" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G45" t="n" s="25">
-        <v>0.21645554691704746</v>
+        <v>0.18754528611198645</v>
       </c>
       <c r="H45" t="n" s="25">
-        <v>0.7302888589808976</v>
+        <v>0.7090663946807574</v>
       </c>
       <c r="I45" t="n" s="25">
-        <v>0.8952542142400708</v>
+        <v>0.8369828682044976</v>
       </c>
       <c r="J45" t="n" s="25">
-        <v>1.0865484187674836E-4</v>
+        <v>5.385609634604391E-5</v>
       </c>
       <c r="K45" t="n" s="25">
-        <v>0.7920557543657959</v>
+        <v>0.7634764846959408</v>
       </c>
       <c r="L45" t="n" s="25">
-        <v>0.0024928953526777123</v>
+        <v>0.0012174928091081727</v>
       </c>
       <c r="M45" t="n" s="25">
-        <v>1.2784386245355958E-11</v>
+        <v>5.265418311636661E-12</v>
       </c>
       <c r="N45" t="n" s="25">
         <v>0.5</v>
@@ -2127,31 +2127,31 @@
         <v>45.0</v>
       </c>
       <c r="E46" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F46" t="n" s="25">
-        <v>0.001664438663734058</v>
+        <v>0.001553502673123354</v>
       </c>
       <c r="G46" t="n" s="25">
-        <v>5.29353310850551E-8</v>
+        <v>4.65647557755636E-8</v>
       </c>
       <c r="H46" t="n" s="25">
-        <v>0.0011638190920615905</v>
+        <v>0.0011124989924058502</v>
       </c>
       <c r="I46" t="n" s="25">
-        <v>3.553147364766064E-12</v>
+        <v>3.0916472388356867E-12</v>
       </c>
       <c r="J46" t="n" s="25">
-        <v>9.483806863586518E-23</v>
+        <v>7.642692496316562E-23</v>
       </c>
       <c r="K46" t="n" s="25">
-        <v>2.365932021287851E-6</v>
+        <v>2.275783575026811E-6</v>
       </c>
       <c r="L46" t="n" s="25">
-        <v>2.2810970534621324E-18</v>
+        <v>2.0383406380473066E-18</v>
       </c>
       <c r="M46" t="n" s="25">
-        <v>3.8684596852103275E-31</v>
+        <v>3.2312342550813804E-31</v>
       </c>
       <c r="N46" t="n" s="25">
         <v>0.5</v>
@@ -2162,31 +2162,31 @@
         <v>46.0</v>
       </c>
       <c r="E47" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F47" t="n" s="25">
-        <v>0.1093470846422474</v>
+        <v>0.09927622730910317</v>
       </c>
       <c r="G47" t="n" s="25">
-        <v>0.0023027930986504745</v>
+        <v>0.001602508999074987</v>
       </c>
       <c r="H47" t="n" s="25">
-        <v>0.09010202365998098</v>
+        <v>0.08242183858749726</v>
       </c>
       <c r="I47" t="n" s="25">
-        <v>2.0762338462170826E-6</v>
+        <v>1.5677482884872196E-6</v>
       </c>
       <c r="J47" t="n" s="25">
-        <v>1.8119692419776078E-12</v>
+        <v>8.917730150775097E-13</v>
       </c>
       <c r="K47" t="n" s="25">
-        <v>0.0013188381024481905</v>
+        <v>0.0011289039438267072</v>
       </c>
       <c r="L47" t="n" s="25">
-        <v>6.471230551814126E-11</v>
+        <v>4.749999035340883E-11</v>
       </c>
       <c r="M47" t="n" s="25">
-        <v>2.7526542916517254E-19</v>
+        <v>1.388815880856394E-19</v>
       </c>
       <c r="N47" t="n" s="25">
         <v>0.5</v>
@@ -2197,31 +2197,31 @@
         <v>47.0</v>
       </c>
       <c r="E48" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F48" t="n" s="25">
-        <v>0.023391064741401846</v>
+        <v>0.021546889366894077</v>
       </c>
       <c r="G48" t="n" s="25">
-        <v>0.001434257111863185</v>
+        <v>0.001123817824707182</v>
       </c>
       <c r="H48" t="n" s="25">
-        <v>0.05740496618530353</v>
+        <v>0.052592446146958925</v>
       </c>
       <c r="I48" t="n" s="25">
-        <v>6.702939225994668E-5</v>
+        <v>4.7627449081228045E-5</v>
       </c>
       <c r="J48" t="n" s="25">
-        <v>4.277408096322457E-10</v>
+        <v>2.15093220287368E-10</v>
       </c>
       <c r="K48" t="n" s="25">
-        <v>3.3192485003846495E-4</v>
+        <v>3.064865554987525E-4</v>
       </c>
       <c r="L48" t="n" s="25">
-        <v>1.1861489474955686E-10</v>
+        <v>8.910939377930815E-11</v>
       </c>
       <c r="M48" t="n" s="25">
-        <v>1.3547262982976211E-18</v>
+        <v>7.508896722722543E-19</v>
       </c>
       <c r="N48" t="n" s="25">
         <v>0.5</v>
@@ -2232,31 +2232,31 @@
         <v>49.0</v>
       </c>
       <c r="E49" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F49" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G49" t="n" s="25">
-        <v>0.019203355524043297</v>
+        <v>0.016097269960273056</v>
       </c>
       <c r="H49" t="n" s="25">
-        <v>0.6645296339106109</v>
+        <v>0.6484987364743885</v>
       </c>
       <c r="I49" t="n" s="25">
-        <v>0.11510660682686291</v>
+        <v>0.08277992339822292</v>
       </c>
       <c r="J49" t="n" s="25">
-        <v>3.6467361060652705E-8</v>
+        <v>2.0875408989667136E-8</v>
       </c>
       <c r="K49" t="n" s="25">
-        <v>0.6416500389648636</v>
+        <v>0.6276236141834869</v>
       </c>
       <c r="L49" t="n" s="25">
-        <v>7.912028371658602E-6</v>
+        <v>5.794244685342878E-6</v>
       </c>
       <c r="M49" t="n" s="25">
-        <v>1.4570874099672915E-15</v>
+        <v>9.010299983770042E-16</v>
       </c>
       <c r="N49" t="n" s="25">
         <v>0.5</v>
@@ -2267,31 +2267,31 @@
         <v>50.0</v>
       </c>
       <c r="E50" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F50" t="n" s="25">
-        <v>0.10862634746598841</v>
+        <v>0.09942152570231509</v>
       </c>
       <c r="G50" t="n" s="25">
-        <v>2.656120478948115E-4</v>
+        <v>2.3074566815215264E-4</v>
       </c>
       <c r="H50" t="n" s="25">
-        <v>0.08865470226649255</v>
+        <v>0.08384923776390428</v>
       </c>
       <c r="I50" t="n" s="25">
-        <v>4.656117883089206E-5</v>
+        <v>3.506401203508607E-5</v>
       </c>
       <c r="J50" t="n" s="25">
-        <v>3.2634671935504837E-12</v>
+        <v>2.0276844833292954E-12</v>
       </c>
       <c r="K50" t="n" s="25">
-        <v>0.00893126911137535</v>
+        <v>0.008472447658298516</v>
       </c>
       <c r="L50" t="n" s="25">
-        <v>5.815185752015919E-10</v>
+        <v>4.553875229755883E-10</v>
       </c>
       <c r="M50" t="n" s="25">
-        <v>4.283688840497563E-20</v>
+        <v>2.8325724167675985E-20</v>
       </c>
       <c r="N50" t="n" s="25">
         <v>0.5</v>
@@ -2302,31 +2302,31 @@
         <v>51.0</v>
       </c>
       <c r="E51" t="n" s="25">
-        <v>0.23400019527729374</v>
+        <v>0.2303568789367313</v>
       </c>
       <c r="F51" t="n" s="25">
-        <v>4.153522911054745E-4</v>
+        <v>3.876829185884188E-4</v>
       </c>
       <c r="G51" t="n" s="25">
-        <v>9.70256450518494E-6</v>
+        <v>6.536993240760589E-6</v>
       </c>
       <c r="H51" t="n" s="25">
-        <v>4.6735750479565157E-4</v>
+        <v>4.3312092632008623E-4</v>
       </c>
       <c r="I51" t="n" s="25">
-        <v>2.280003903181653E-13</v>
+        <v>1.993282164610299E-13</v>
       </c>
       <c r="J51" t="n" s="25">
-        <v>2.4106282948905866E-20</v>
+        <v>1.410433120649221E-20</v>
       </c>
       <c r="K51" t="n" s="25">
-        <v>2.2740442064024907E-9</v>
+        <v>2.1321935433246183E-9</v>
       </c>
       <c r="L51" t="n" s="25">
-        <v>9.027232212458743E-20</v>
+        <v>8.065672573279875E-20</v>
       </c>
       <c r="M51" t="n" s="25">
-        <v>9.652631725411938E-28</v>
+        <v>6.225658071037053E-28</v>
       </c>
       <c r="N51" t="n" s="25">
         <v>0.5</v>
@@ -2337,31 +2337,31 @@
         <v>52.0</v>
       </c>
       <c r="E52" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F52" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G52" t="n" s="25">
-        <v>0.08816373567665829</v>
+        <v>0.07475365191249425</v>
       </c>
       <c r="H52" t="n" s="25">
-        <v>0.7167824620187029</v>
+        <v>0.6962727061705521</v>
       </c>
       <c r="I52" t="n" s="25">
-        <v>0.6388635503946886</v>
+        <v>0.5229022841712574</v>
       </c>
       <c r="J52" t="n" s="25">
-        <v>2.8339524609520593E-6</v>
+        <v>1.4486319445472187E-6</v>
       </c>
       <c r="K52" t="n" s="25">
-        <v>0.6898269026071802</v>
+        <v>0.6713275961590198</v>
       </c>
       <c r="L52" t="n" s="25">
-        <v>7.711549401943392E-5</v>
+        <v>5.113914201732616E-5</v>
       </c>
       <c r="M52" t="n" s="25">
-        <v>6.455751279717745E-14</v>
+        <v>3.614871547371426E-14</v>
       </c>
       <c r="N52" t="n" s="25">
         <v>0.5</v>
@@ -2372,31 +2372,31 @@
         <v>53.0</v>
       </c>
       <c r="E53" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F53" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G53" t="n" s="25">
-        <v>0.9762166678529156</v>
+        <v>0.9617198368810819</v>
       </c>
       <c r="H53" t="n" s="25">
-        <v>0.7931479581128249</v>
+        <v>0.7684024484998381</v>
       </c>
       <c r="I53" t="n" s="25">
-        <v>0.9869799854224988</v>
+        <v>0.9757457842374969</v>
       </c>
       <c r="J53" t="n" s="25">
-        <v>0.9986227321773392</v>
+        <v>0.9900130212710743</v>
       </c>
       <c r="K53" t="n" s="25">
-        <v>0.8410435193201904</v>
+        <v>0.7911624729033918</v>
       </c>
       <c r="L53" t="n" s="25">
-        <v>0.9698050489771044</v>
+        <v>0.894338403086753</v>
       </c>
       <c r="M53" t="n" s="25">
-        <v>1.0</v>
+        <v>0.051368075824870504</v>
       </c>
       <c r="N53" t="n" s="25">
         <v>0.5</v>
@@ -2407,31 +2407,31 @@
         <v>54.0</v>
       </c>
       <c r="E54" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F54" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G54" t="n" s="25">
-        <v>0.9732701833895278</v>
+        <v>0.9585620001334959</v>
       </c>
       <c r="H54" t="n" s="25">
-        <v>0.7931479581128249</v>
+        <v>0.7684024484998381</v>
       </c>
       <c r="I54" t="n" s="25">
-        <v>0.9965176244597276</v>
+        <v>0.9932253510303038</v>
       </c>
       <c r="J54" t="n" s="25">
-        <v>0.9999718555730771</v>
+        <v>0.999777450561134</v>
       </c>
       <c r="K54" t="n" s="25">
-        <v>0.953314116673262</v>
+        <v>0.9320946339590257</v>
       </c>
       <c r="L54" t="n" s="25">
-        <v>0.9994706820522055</v>
+        <v>0.9973743875511951</v>
       </c>
       <c r="M54" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9921634158551558</v>
       </c>
       <c r="N54" t="n" s="25">
         <v>0.5</v>
@@ -2442,31 +2442,31 @@
         <v>55.0</v>
       </c>
       <c r="E55" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F55" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G55" t="n" s="25">
-        <v>0.7622084625251234</v>
+        <v>0.7193583512169176</v>
       </c>
       <c r="H55" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I55" t="n" s="25">
-        <v>0.9887305746128856</v>
+        <v>0.9796227224324021</v>
       </c>
       <c r="J55" t="n" s="25">
-        <v>0.2753494408465166</v>
+        <v>0.12449652437702852</v>
       </c>
       <c r="K55" t="n" s="25">
-        <v>0.9223780837088263</v>
+        <v>0.8955851154788964</v>
       </c>
       <c r="L55" t="n" s="25">
-        <v>0.913182584127118</v>
+        <v>0.7354343865959201</v>
       </c>
       <c r="M55" t="n" s="25">
-        <v>2.0063938173009573E-5</v>
+        <v>3.7917684901534626E-6</v>
       </c>
       <c r="N55" t="n" s="25">
         <v>0.5</v>
@@ -2477,31 +2477,31 @@
         <v>56.0</v>
       </c>
       <c r="E56" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F56" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G56" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H56" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I56" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9897064843029483</v>
       </c>
       <c r="J56" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9999999545564596</v>
       </c>
       <c r="K56" t="n" s="25">
-        <v>0.9472809491787514</v>
+        <v>0.9245907425397766</v>
       </c>
       <c r="L56" t="n" s="25">
-        <v>0.9999556518416287</v>
+        <v>0.9997920892897154</v>
       </c>
       <c r="M56" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999983543414</v>
       </c>
       <c r="N56" t="n" s="25">
         <v>0.5</v>
@@ -2512,31 +2512,31 @@
         <v>57.0</v>
       </c>
       <c r="E57" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F57" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G57" t="n" s="25">
-        <v>0.8408318765204355</v>
+        <v>0.7920345149124295</v>
       </c>
       <c r="H57" t="n" s="25">
-        <v>0.776057634973068</v>
+        <v>0.7520057770280865</v>
       </c>
       <c r="I57" t="n" s="25">
-        <v>0.9889276872592941</v>
+        <v>0.9795552123125417</v>
       </c>
       <c r="J57" t="n" s="25">
-        <v>0.9431376323292209</v>
+        <v>0.7847172933803596</v>
       </c>
       <c r="K57" t="n" s="25">
-        <v>0.8261011383994438</v>
+        <v>0.7977138779086662</v>
       </c>
       <c r="L57" t="n" s="25">
-        <v>0.41605353201454526</v>
+        <v>0.24176108434301777</v>
       </c>
       <c r="M57" t="n" s="25">
-        <v>1.3959628312471895E-5</v>
+        <v>3.0515895065380544E-6</v>
       </c>
       <c r="N57" t="n" s="25">
         <v>0.5</v>
@@ -2547,31 +2547,31 @@
         <v>58.0</v>
       </c>
       <c r="E58" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F58" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G58" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H58" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.6877785975383235</v>
       </c>
       <c r="I58" t="n" s="25">
-        <v>0.9824066548657884</v>
+        <v>0.9724794480464999</v>
       </c>
       <c r="J58" t="n" s="25">
-        <v>0.9999993873374758</v>
+        <v>0.9999911487422105</v>
       </c>
       <c r="K58" t="n" s="25">
-        <v>0.6814231609075969</v>
+        <v>0.6638635943228968</v>
       </c>
       <c r="L58" t="n" s="25">
-        <v>0.9697745336480498</v>
+        <v>0.9558537645833332</v>
       </c>
       <c r="M58" t="n" s="25">
-        <v>0.9416196707782097</v>
+        <v>0.6365450306028531</v>
       </c>
       <c r="N58" t="n" s="25">
         <v>0.5</v>
@@ -2582,31 +2582,31 @@
         <v>59.0</v>
       </c>
       <c r="E59" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F59" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G59" t="n" s="25">
-        <v>0.9116013572642697</v>
+        <v>0.8517234468831788</v>
       </c>
       <c r="H59" t="n" s="25">
-        <v>0.7278166630352282</v>
+        <v>0.7067659170765386</v>
       </c>
       <c r="I59" t="n" s="25">
-        <v>0.9354481574052199</v>
+        <v>0.8975238071304489</v>
       </c>
       <c r="J59" t="n" s="25">
-        <v>0.9997520410366496</v>
+        <v>0.9976286700564502</v>
       </c>
       <c r="K59" t="n" s="25">
-        <v>0.790706884034983</v>
+        <v>0.76299944471518</v>
       </c>
       <c r="L59" t="n" s="25">
-        <v>0.7734584693742756</v>
+        <v>0.6290744813505832</v>
       </c>
       <c r="M59" t="n" s="25">
-        <v>0.022673425502559203</v>
+        <v>0.0028319689299762803</v>
       </c>
       <c r="N59" t="n" s="25">
         <v>0.5</v>
@@ -2617,31 +2617,31 @@
         <v>60.0</v>
       </c>
       <c r="E60" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F60" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G60" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H60" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I60" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9897064843029483</v>
       </c>
       <c r="J60" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9999999545564596</v>
       </c>
       <c r="K60" t="n" s="25">
-        <v>0.8240516618492978</v>
+        <v>0.7958033121708212</v>
       </c>
       <c r="L60" t="n" s="25">
-        <v>0.9975568596546833</v>
+        <v>0.9945911544659914</v>
       </c>
       <c r="M60" t="n" s="25">
-        <v>1.0</v>
+        <v>0.99993045855249</v>
       </c>
       <c r="N60" t="n" s="25">
         <v>0.5</v>
@@ -2652,31 +2652,31 @@
         <v>61.0</v>
       </c>
       <c r="E61" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F61" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G61" t="n" s="25">
-        <v>0.9350307038876907</v>
+        <v>0.903419791185603</v>
       </c>
       <c r="H61" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I61" t="n" s="25">
-        <v>0.9887305746128856</v>
+        <v>0.9796227224324021</v>
       </c>
       <c r="J61" t="n" s="25">
-        <v>0.9999413078710491</v>
+        <v>0.9995642682307176</v>
       </c>
       <c r="K61" t="n" s="25">
-        <v>0.9223780837088263</v>
+        <v>0.8955851154788964</v>
       </c>
       <c r="L61" t="n" s="25">
-        <v>0.9976471874206724</v>
+        <v>0.9911551146663894</v>
       </c>
       <c r="M61" t="n" s="25">
-        <v>0.7611576832698437</v>
+        <v>0.2193775252362565</v>
       </c>
       <c r="N61" t="n" s="25">
         <v>0.5</v>
@@ -2687,31 +2687,31 @@
         <v>62.0</v>
       </c>
       <c r="E62" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F62" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G62" t="n" s="25">
-        <v>0.9856370990033595</v>
+        <v>0.9748983454092053</v>
       </c>
       <c r="H62" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I62" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9897064843029483</v>
       </c>
       <c r="J62" t="n" s="25">
-        <v>0.9998978496808022</v>
+        <v>0.9991591605472305</v>
       </c>
       <c r="K62" t="n" s="25">
-        <v>0.9223780837088263</v>
+        <v>0.8955851154788964</v>
       </c>
       <c r="L62" t="n" s="25">
-        <v>0.9968966239272117</v>
+        <v>0.988357703289051</v>
       </c>
       <c r="M62" t="n" s="25">
-        <v>1.0</v>
+        <v>0.7150081493609575</v>
       </c>
       <c r="N62" t="n" s="25">
         <v>0.5</v>
@@ -2722,31 +2722,31 @@
         <v>63.0</v>
       </c>
       <c r="E63" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F63" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G63" t="n" s="25">
-        <v>0.9737260218658</v>
+        <v>0.9541941599353565</v>
       </c>
       <c r="H63" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I63" t="n" s="25">
-        <v>0.9887305746128856</v>
+        <v>0.9796227224324021</v>
       </c>
       <c r="J63" t="n" s="25">
-        <v>0.9999957894590539</v>
+        <v>0.9999456664782526</v>
       </c>
       <c r="K63" t="n" s="25">
-        <v>0.8807163509401439</v>
+        <v>0.8516755924826085</v>
       </c>
       <c r="L63" t="n" s="25">
-        <v>0.9891391404397969</v>
+        <v>0.9695155927535418</v>
       </c>
       <c r="M63" t="n" s="25">
-        <v>1.0</v>
+        <v>0.8765609565746363</v>
       </c>
       <c r="N63" t="n" s="25">
         <v>0.5</v>
@@ -2757,31 +2757,31 @@
         <v>64.0</v>
       </c>
       <c r="E64" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F64" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G64" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H64" t="n" s="25">
-        <v>0.7278166630352282</v>
+        <v>0.7067659170765386</v>
       </c>
       <c r="I64" t="n" s="25">
-        <v>0.9877312527342245</v>
+        <v>0.9798620868090402</v>
       </c>
       <c r="J64" t="n" s="25">
-        <v>0.9999999083466489</v>
+        <v>0.9999983422961309</v>
       </c>
       <c r="K64" t="n" s="25">
-        <v>0.8562368823195879</v>
+        <v>0.8258836746308846</v>
       </c>
       <c r="L64" t="n" s="25">
-        <v>0.9986198489977162</v>
+        <v>0.9964247070905962</v>
       </c>
       <c r="M64" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999229986653353</v>
       </c>
       <c r="N64" t="n" s="25">
         <v>0.5</v>
@@ -2792,31 +2792,31 @@
         <v>65.0</v>
       </c>
       <c r="E65" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F65" t="n" s="25">
-        <v>0.76664393192103</v>
+        <v>0.7429902792097743</v>
       </c>
       <c r="G65" t="n" s="25">
-        <v>0.9638668552621725</v>
+        <v>0.9395623218999558</v>
       </c>
       <c r="H65" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I65" t="n" s="25">
-        <v>0.9834304691893336</v>
+        <v>0.9715134465485753</v>
       </c>
       <c r="J65" t="n" s="25">
-        <v>0.9999398259191712</v>
+        <v>0.99940714517999</v>
       </c>
       <c r="K65" t="n" s="25">
-        <v>0.9493238177522928</v>
+        <v>0.9266708709195036</v>
       </c>
       <c r="L65" t="n" s="25">
-        <v>0.9892215421549115</v>
+        <v>0.9594254034153135</v>
       </c>
       <c r="M65" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9262488774075374</v>
       </c>
       <c r="N65" t="n" s="25">
         <v>0.5</v>
@@ -2827,31 +2827,31 @@
         <v>66.0</v>
       </c>
       <c r="E66" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F66" t="n" s="25">
-        <v>0.4906350126375699</v>
+        <v>0.45938127515117677</v>
       </c>
       <c r="G66" t="n" s="25">
-        <v>0.007406906157880126</v>
+        <v>0.006004870611911835</v>
       </c>
       <c r="H66" t="n" s="25">
-        <v>0.4420750271268031</v>
+        <v>0.42461805971563144</v>
       </c>
       <c r="I66" t="n" s="25">
-        <v>0.01867861886907159</v>
+        <v>0.013160321561308594</v>
       </c>
       <c r="J66" t="n" s="25">
-        <v>9.202089753570232E-8</v>
+        <v>4.4033192378057886E-8</v>
       </c>
       <c r="K66" t="n" s="25">
-        <v>0.20043467298168205</v>
+        <v>0.19091474266952227</v>
       </c>
       <c r="L66" t="n" s="25">
-        <v>1.4026643044862385E-6</v>
+        <v>1.0385619826433722E-6</v>
       </c>
       <c r="M66" t="n" s="25">
-        <v>3.1208722709086484E-15</v>
+        <v>1.6523928505441713E-15</v>
       </c>
       <c r="N66" t="n" s="25">
         <v>0.5</v>
@@ -2862,31 +2862,31 @@
         <v>67.0</v>
       </c>
       <c r="E67" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F67" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G67" t="n" s="25">
-        <v>0.6178139615111987</v>
+        <v>0.5848266287443501</v>
       </c>
       <c r="H67" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I67" t="n" s="25">
-        <v>0.9887305746128856</v>
+        <v>0.9796227224324021</v>
       </c>
       <c r="J67" t="n" s="25">
-        <v>0.015393821555818353</v>
+        <v>0.008494067456383283</v>
       </c>
       <c r="K67" t="n" s="25">
-        <v>0.9644924787757004</v>
+        <v>0.9458951482898038</v>
       </c>
       <c r="L67" t="n" s="25">
-        <v>0.9866013522766154</v>
+        <v>0.9263002131760583</v>
       </c>
       <c r="M67" t="n" s="25">
-        <v>8.391698640899542E-6</v>
+        <v>1.4323781794503155E-6</v>
       </c>
       <c r="N67" t="n" s="25">
         <v>0.5</v>
@@ -2897,31 +2897,31 @@
         <v>68.0</v>
       </c>
       <c r="E68" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F68" t="n" s="25">
-        <v>0.762513326156567</v>
+        <v>0.7390697294466431</v>
       </c>
       <c r="G68" t="n" s="25">
-        <v>0.818254097854041</v>
+        <v>0.7476284048062116</v>
       </c>
       <c r="H68" t="n" s="25">
-        <v>0.7473901734439875</v>
+        <v>0.7250601357704712</v>
       </c>
       <c r="I68" t="n" s="25">
-        <v>0.9421741891189056</v>
+        <v>0.9076929510997898</v>
       </c>
       <c r="J68" t="n" s="25">
-        <v>0.9982471786263565</v>
+        <v>0.9882987346078271</v>
       </c>
       <c r="K68" t="n" s="25">
-        <v>0.9063301225826165</v>
+        <v>0.8789364860710965</v>
       </c>
       <c r="L68" t="n" s="25">
-        <v>0.8685333878120101</v>
+        <v>0.7183532368284893</v>
       </c>
       <c r="M68" t="n" s="25">
-        <v>1.0</v>
+        <v>0.03383531575204838</v>
       </c>
       <c r="N68" t="n" s="25">
         <v>0.5</v>
@@ -2932,31 +2932,31 @@
         <v>69.0</v>
       </c>
       <c r="E69" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F69" t="n" s="25">
-        <v>0.1912011098121994</v>
+        <v>0.17393989557226752</v>
       </c>
       <c r="G69" t="n" s="25">
-        <v>0.015883079635212106</v>
+        <v>0.011403550573594757</v>
       </c>
       <c r="H69" t="n" s="25">
-        <v>0.10354287349520493</v>
+        <v>0.09464498071425427</v>
       </c>
       <c r="I69" t="n" s="25">
-        <v>1.916321065545046E-5</v>
+        <v>1.3309711807074594E-5</v>
       </c>
       <c r="J69" t="n" s="25">
-        <v>6.38061107754613E-11</v>
+        <v>3.0229748509322366E-11</v>
       </c>
       <c r="K69" t="n" s="25">
-        <v>7.529181870962826E-4</v>
+        <v>6.909288565005575E-4</v>
       </c>
       <c r="L69" t="n" s="25">
-        <v>3.4628493159416094E-10</v>
+        <v>2.539973868533222E-10</v>
       </c>
       <c r="M69" t="n" s="25">
-        <v>6.7286489769565546E-18</v>
+        <v>3.521847985901142E-18</v>
       </c>
       <c r="N69" t="n" s="25">
         <v>0.5</v>
@@ -2967,31 +2967,31 @@
         <v>70.0</v>
       </c>
       <c r="E70" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F70" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G70" t="n" s="25">
-        <v>0.1677513505368545</v>
+        <v>0.13249181213120276</v>
       </c>
       <c r="H70" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.6877785975383235</v>
       </c>
       <c r="I70" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.5886682142372878</v>
       </c>
       <c r="J70" t="n" s="25">
-        <v>0.009021245904304538</v>
+        <v>0.0029516845125565896</v>
       </c>
       <c r="K70" t="n" s="25">
-        <v>0.8416687116064825</v>
+        <v>0.8108634850714023</v>
       </c>
       <c r="L70" t="n" s="25">
-        <v>0.059684989084972564</v>
+        <v>0.02510813076966018</v>
       </c>
       <c r="M70" t="n" s="25">
-        <v>2.871743687547687E-8</v>
+        <v>6.933795801749613E-9</v>
       </c>
       <c r="N70" t="n" s="25">
         <v>0.5</v>
@@ -3002,31 +3002,31 @@
         <v>71.0</v>
       </c>
       <c r="E71" t="n" s="25">
-        <v>0.04721610052045416</v>
+        <v>0.04655945486648116</v>
       </c>
       <c r="F71" t="n" s="25">
-        <v>0.0065314516906802705</v>
+        <v>0.005954755532535942</v>
       </c>
       <c r="G71" t="n" s="25">
-        <v>0.001186511651396413</v>
+        <v>9.923380934717357E-4</v>
       </c>
       <c r="H71" t="n" s="25">
-        <v>0.002516907277667225</v>
+        <v>0.0022843198949437987</v>
       </c>
       <c r="I71" t="n" s="25">
-        <v>1.636572646642255E-5</v>
+        <v>1.0553840869544547E-5</v>
       </c>
       <c r="J71" t="n" s="25">
-        <v>7.442366793366062E-10</v>
+        <v>3.7703144174045743E-10</v>
       </c>
       <c r="K71" t="n" s="25">
-        <v>4.01898840026904E-4</v>
+        <v>2.981166754962557E-4</v>
       </c>
       <c r="L71" t="n" s="25">
-        <v>2.5927090863141026E-7</v>
+        <v>7.921075988263708E-8</v>
       </c>
       <c r="M71" t="n" s="25">
-        <v>3.103186189699796E-14</v>
+        <v>7.661214097570144E-15</v>
       </c>
       <c r="N71" t="n" s="25">
         <v>0.5</v>
@@ -3037,31 +3037,31 @@
         <v>72.0</v>
       </c>
       <c r="E72" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F72" t="n" s="25">
-        <v>0.4906350126375699</v>
+        <v>0.45938127515117677</v>
       </c>
       <c r="G72" t="n" s="25">
-        <v>0.06929552964251778</v>
+        <v>0.04670285907014979</v>
       </c>
       <c r="H72" t="n" s="25">
-        <v>0.4667204925914717</v>
+        <v>0.44640910578496135</v>
       </c>
       <c r="I72" t="n" s="25">
-        <v>0.07352915183918783</v>
+        <v>0.050426839810423306</v>
       </c>
       <c r="J72" t="n" s="25">
-        <v>0.10943527553612144</v>
+        <v>0.01980479261423523</v>
       </c>
       <c r="K72" t="n" s="25">
-        <v>0.3016405384644046</v>
+        <v>0.2734318697036533</v>
       </c>
       <c r="L72" t="n" s="25">
-        <v>0.0016958312057637225</v>
+        <v>9.353430110721213E-4</v>
       </c>
       <c r="M72" t="n" s="25">
-        <v>8.273102771638261E-8</v>
+        <v>1.5214369938626228E-8</v>
       </c>
       <c r="N72" t="n" s="25">
         <v>0.5</v>
@@ -3072,31 +3072,31 @@
         <v>73.0</v>
       </c>
       <c r="E73" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F73" t="n" s="25">
-        <v>0.4906350126375699</v>
+        <v>0.45938127515117677</v>
       </c>
       <c r="G73" t="n" s="25">
-        <v>0.054474460155229866</v>
+        <v>0.04647217121117449</v>
       </c>
       <c r="H73" t="n" s="25">
-        <v>0.5278950367175904</v>
+        <v>0.5004935667328635</v>
       </c>
       <c r="I73" t="n" s="25">
-        <v>0.11699838392154349</v>
+        <v>0.0749106352455763</v>
       </c>
       <c r="J73" t="n" s="25">
-        <v>5.198290105897199E-8</v>
+        <v>3.0149277627923126E-8</v>
       </c>
       <c r="K73" t="n" s="25">
-        <v>0.06372411102582692</v>
+        <v>0.058299543008825346</v>
       </c>
       <c r="L73" t="n" s="25">
-        <v>3.994644361572692E-7</v>
+        <v>2.623741460466696E-7</v>
       </c>
       <c r="M73" t="n" s="25">
-        <v>3.278308163205211E-16</v>
+        <v>2.0546547709282246E-16</v>
       </c>
       <c r="N73" t="n" s="25">
         <v>0.5</v>
@@ -3107,31 +3107,31 @@
         <v>74.0</v>
       </c>
       <c r="E74" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F74" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G74" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H74" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.6877785975383235</v>
       </c>
       <c r="I74" t="n" s="25">
-        <v>0.9824066548657884</v>
+        <v>0.9724794480464999</v>
       </c>
       <c r="J74" t="n" s="25">
-        <v>0.9999993873374758</v>
+        <v>0.9999911487422105</v>
       </c>
       <c r="K74" t="n" s="25">
-        <v>0.7712721347904135</v>
+        <v>0.744234497904197</v>
       </c>
       <c r="L74" t="n" s="25">
-        <v>0.9919950287995265</v>
+        <v>0.9848130358698438</v>
       </c>
       <c r="M74" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9829634704391826</v>
       </c>
       <c r="N74" t="n" s="25">
         <v>0.5</v>
@@ -3142,31 +3142,31 @@
         <v>75.0</v>
       </c>
       <c r="E75" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F75" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G75" t="n" s="25">
-        <v>0.9075157300642339</v>
+        <v>0.8706515898761951</v>
       </c>
       <c r="H75" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I75" t="n" s="25">
-        <v>0.9887305746128856</v>
+        <v>0.9796227224324021</v>
       </c>
       <c r="J75" t="n" s="25">
-        <v>0.9990430331456225</v>
+        <v>0.9946757160031223</v>
       </c>
       <c r="K75" t="n" s="25">
-        <v>0.9472809491787514</v>
+        <v>0.9245907425397766</v>
       </c>
       <c r="L75" t="n" s="25">
-        <v>0.9985273371597033</v>
+        <v>0.9931321197708086</v>
       </c>
       <c r="M75" t="n" s="25">
-        <v>1.0</v>
+        <v>0.514173372980855</v>
       </c>
       <c r="N75" t="n" s="25">
         <v>0.5</v>
@@ -3177,31 +3177,31 @@
         <v>76.0</v>
       </c>
       <c r="E76" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F76" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G76" t="n" s="25">
-        <v>0.2819481575703895</v>
+        <v>0.23896482792147986</v>
       </c>
       <c r="H76" t="n" s="25">
-        <v>0.7278166630352282</v>
+        <v>0.7067659170765386</v>
       </c>
       <c r="I76" t="n" s="25">
-        <v>0.8787248492521719</v>
+        <v>0.814098130132273</v>
       </c>
       <c r="J76" t="n" s="25">
-        <v>0.001269298842472006</v>
+        <v>5.24332661820611E-4</v>
       </c>
       <c r="K76" t="n" s="25">
-        <v>0.8456333365794471</v>
+        <v>0.8166422798834121</v>
       </c>
       <c r="L76" t="n" s="25">
-        <v>0.03941513328371021</v>
+        <v>0.016693760586971414</v>
       </c>
       <c r="M76" t="n" s="25">
-        <v>1.0</v>
+        <v>2.282206452539106E-8</v>
       </c>
       <c r="N76" t="n" s="25">
         <v>0.5</v>
@@ -3212,31 +3212,31 @@
         <v>77.0</v>
       </c>
       <c r="E77" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F77" t="n" s="25">
-        <v>0.4906350126375699</v>
+        <v>0.45938127515117677</v>
       </c>
       <c r="G77" t="n" s="25">
-        <v>0.00944978779647376</v>
+        <v>0.007911077781240434</v>
       </c>
       <c r="H77" t="n" s="25">
-        <v>0.47298974819991096</v>
+        <v>0.45190044359799425</v>
       </c>
       <c r="I77" t="n" s="25">
-        <v>0.01123929369533353</v>
+        <v>0.007737719612163804</v>
       </c>
       <c r="J77" t="n" s="25">
-        <v>6.351846676209971E-10</v>
+        <v>4.0310476434112744E-10</v>
       </c>
       <c r="K77" t="n" s="25">
-        <v>0.10075055307628254</v>
+        <v>0.09434906282160707</v>
       </c>
       <c r="L77" t="n" s="25">
-        <v>7.059826662897523E-8</v>
+        <v>5.099461804585865E-8</v>
       </c>
       <c r="M77" t="n" s="25">
-        <v>5.806702525103795E-18</v>
+        <v>3.974171555546736E-18</v>
       </c>
       <c r="N77" t="n" s="25">
         <v>0.5</v>
@@ -3247,31 +3247,31 @@
         <v>78.0</v>
       </c>
       <c r="E78" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F78" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G78" t="n" s="25">
-        <v>0.975282518223112</v>
+        <v>0.9541333384379532</v>
       </c>
       <c r="H78" t="n" s="25">
-        <v>0.6645296339106109</v>
+        <v>0.6484987364743885</v>
       </c>
       <c r="I78" t="n" s="25">
-        <v>0.9129499928791819</v>
+        <v>0.8791754454251534</v>
       </c>
       <c r="J78" t="n" s="25">
-        <v>0.3509811623457484</v>
+        <v>0.12539930326618576</v>
       </c>
       <c r="K78" t="n" s="25">
-        <v>0.6416500389648636</v>
+        <v>0.6276236141834869</v>
       </c>
       <c r="L78" t="n" s="25">
-        <v>0.20699323462925778</v>
+        <v>0.16047921371274845</v>
       </c>
       <c r="M78" t="n" s="25">
-        <v>3.7153652473268013E-6</v>
+        <v>1.136028489473079E-6</v>
       </c>
       <c r="N78" t="n" s="25">
         <v>0.5</v>
@@ -3282,31 +3282,31 @@
         <v>79.0</v>
       </c>
       <c r="E79" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F79" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G79" t="n" s="25">
-        <v>0.8191060877638168</v>
+        <v>0.7412523554641625</v>
       </c>
       <c r="H79" t="n" s="25">
-        <v>0.7579861428534005</v>
+        <v>0.7348488255501564</v>
       </c>
       <c r="I79" t="n" s="25">
-        <v>0.8920581031100651</v>
+        <v>0.8284362790115989</v>
       </c>
       <c r="J79" t="n" s="25">
-        <v>0.8987420435231944</v>
+        <v>0.5990824304301993</v>
       </c>
       <c r="K79" t="n" s="25">
-        <v>0.5475716312786533</v>
+        <v>0.521218243881049</v>
       </c>
       <c r="L79" t="n" s="25">
-        <v>0.014944080244267209</v>
+        <v>0.009459442222785823</v>
       </c>
       <c r="M79" t="n" s="25">
-        <v>9.566606514356686E-7</v>
+        <v>2.3072926624994347E-7</v>
       </c>
       <c r="N79" t="n" s="25">
         <v>0.5</v>
@@ -3317,31 +3317,31 @@
         <v>80.0</v>
       </c>
       <c r="E80" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F80" t="n" s="25">
-        <v>0.5540439256333253</v>
+        <v>0.5240166655195617</v>
       </c>
       <c r="G80" t="n" s="25">
-        <v>0.08720842246898527</v>
+        <v>0.07508881311865677</v>
       </c>
       <c r="H80" t="n" s="25">
-        <v>0.5461348043400459</v>
+        <v>0.5202939983920979</v>
       </c>
       <c r="I80" t="n" s="25">
-        <v>0.5633308881195003</v>
+        <v>0.44175997459601346</v>
       </c>
       <c r="J80" t="n" s="25">
-        <v>1.3121450310377315E-5</v>
+        <v>6.640907568389902E-6</v>
       </c>
       <c r="K80" t="n" s="25">
-        <v>0.5095506921365772</v>
+        <v>0.46959023834461944</v>
       </c>
       <c r="L80" t="n" s="25">
-        <v>3.8596450752316697E-4</v>
+        <v>1.9427350363065878E-4</v>
       </c>
       <c r="M80" t="n" s="25">
-        <v>2.468976010252712E-12</v>
+        <v>1.0491688014940633E-12</v>
       </c>
       <c r="N80" t="n" s="25">
         <v>0.5</v>
@@ -3352,31 +3352,31 @@
         <v>81.0</v>
       </c>
       <c r="E81" t="n" s="25">
-        <v>0.04721610052045416</v>
+        <v>0.04655945486648116</v>
       </c>
       <c r="F81" t="n" s="25">
-        <v>0.005841829654150365</v>
+        <v>0.005391205610451962</v>
       </c>
       <c r="G81" t="n" s="25">
-        <v>0.0019247397084707128</v>
+        <v>0.0012898734323264491</v>
       </c>
       <c r="H81" t="n" s="25">
-        <v>0.0022752845679289593</v>
+        <v>0.0020881761415663743</v>
       </c>
       <c r="I81" t="n" s="25">
-        <v>2.7892736673130466E-5</v>
+        <v>1.9366305430723587E-5</v>
       </c>
       <c r="J81" t="n" s="25">
-        <v>3.981231865910858E-5</v>
+        <v>6.717283454648383E-6</v>
       </c>
       <c r="K81" t="n" s="25">
-        <v>0.001136866409371312</v>
+        <v>9.138546854169017E-4</v>
       </c>
       <c r="L81" t="n" s="25">
-        <v>4.7410162847623625E-7</v>
+        <v>2.472512251245419E-7</v>
       </c>
       <c r="M81" t="n" s="25">
-        <v>1.0</v>
+        <v>7.922038166084398E-11</v>
       </c>
       <c r="N81" t="n" s="25">
         <v>0.5</v>
@@ -3387,31 +3387,31 @@
         <v>82.0</v>
       </c>
       <c r="E82" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F82" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G82" t="n" s="25">
-        <v>0.12082500751728972</v>
+        <v>0.09901784886190398</v>
       </c>
       <c r="H82" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.6877785975383235</v>
       </c>
       <c r="I82" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.5886682142372878</v>
       </c>
       <c r="J82" t="n" s="25">
-        <v>8.924338892993852E-5</v>
+        <v>3.85732087832128E-5</v>
       </c>
       <c r="K82" t="n" s="25">
-        <v>0.6814231609075969</v>
+        <v>0.6638635943228968</v>
       </c>
       <c r="L82" t="n" s="25">
-        <v>3.875761302158121E-4</v>
+        <v>2.6158435901030633E-4</v>
       </c>
       <c r="M82" t="n" s="25">
-        <v>5.391716325540626E-12</v>
+        <v>2.6018715040720334E-12</v>
       </c>
       <c r="N82" t="n" s="25">
         <v>0.5</v>
@@ -3422,31 +3422,31 @@
         <v>83.0</v>
       </c>
       <c r="E83" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F83" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G83" t="n" s="25">
-        <v>0.0881637356766583</v>
+        <v>0.07475365191249424</v>
       </c>
       <c r="H83" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.6877785975383235</v>
       </c>
       <c r="I83" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.5886682142372878</v>
       </c>
       <c r="J83" t="n" s="25">
-        <v>5.175527418688726E-6</v>
+        <v>2.7022441603532854E-6</v>
       </c>
       <c r="K83" t="n" s="25">
-        <v>0.6814231609075969</v>
+        <v>0.6638635943228968</v>
       </c>
       <c r="L83" t="n" s="25">
-        <v>9.692220610413343E-5</v>
+        <v>6.540892221582013E-5</v>
       </c>
       <c r="M83" t="n" s="25">
-        <v>1.11568022785359E-13</v>
+        <v>6.357484659713749E-14</v>
       </c>
       <c r="N83" t="n" s="25">
         <v>0.5</v>
@@ -3457,31 +3457,31 @@
         <v>84.0</v>
       </c>
       <c r="E84" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F84" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G84" t="n" s="25">
-        <v>0.9896162131698111</v>
+        <v>0.9811532164383178</v>
       </c>
       <c r="H84" t="n" s="25">
-        <v>0.7931479581128249</v>
+        <v>0.7684024484998381</v>
       </c>
       <c r="I84" t="n" s="25">
-        <v>0.9965176244597276</v>
+        <v>0.9932253510303038</v>
       </c>
       <c r="J84" t="n" s="25">
-        <v>0.9999959540432564</v>
+        <v>0.9999446594688969</v>
       </c>
       <c r="K84" t="n" s="25">
-        <v>0.8935108271700549</v>
+        <v>0.8653787521765745</v>
       </c>
       <c r="L84" t="n" s="25">
-        <v>0.9878820096946975</v>
+        <v>0.9640981797623945</v>
       </c>
       <c r="M84" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9813899466788911</v>
       </c>
       <c r="N84" t="n" s="25">
         <v>0.5</v>
@@ -3492,31 +3492,31 @@
         <v>85.0</v>
       </c>
       <c r="E85" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F85" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G85" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H85" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.6877785975383235</v>
       </c>
       <c r="I85" t="n" s="25">
-        <v>0.9824066548657884</v>
+        <v>0.9724794480464999</v>
       </c>
       <c r="J85" t="n" s="25">
-        <v>0.9999993873374758</v>
+        <v>0.9999911487422105</v>
       </c>
       <c r="K85" t="n" s="25">
-        <v>0.8416687116064825</v>
+        <v>0.8108634850714023</v>
       </c>
       <c r="L85" t="n" s="25">
-        <v>0.9979150679699839</v>
+        <v>0.9948772678961163</v>
       </c>
       <c r="M85" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9994741793896779</v>
       </c>
       <c r="N85" t="n" s="25">
         <v>0.5</v>
@@ -3527,31 +3527,31 @@
         <v>86.0</v>
       </c>
       <c r="E86" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F86" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G86" t="n" s="25">
-        <v>0.9600503803513073</v>
+        <v>0.9353425467530004</v>
       </c>
       <c r="H86" t="n" s="25">
-        <v>0.7473901734439875</v>
+        <v>0.7250601357704712</v>
       </c>
       <c r="I86" t="n" s="25">
-        <v>0.9830614441036224</v>
+        <v>0.9710146797013907</v>
       </c>
       <c r="J86" t="n" s="25">
-        <v>0.9997496791510837</v>
+        <v>0.9981151133077959</v>
       </c>
       <c r="K86" t="n" s="25">
-        <v>0.8088994444607865</v>
+        <v>0.78079315481396</v>
       </c>
       <c r="L86" t="n" s="25">
-        <v>0.894915858364092</v>
+        <v>0.8006271502517884</v>
       </c>
       <c r="M86" t="n" s="25">
-        <v>0.021043776542850254</v>
+        <v>0.0031779058818623474</v>
       </c>
       <c r="N86" t="n" s="25">
         <v>0.5</v>
@@ -3562,31 +3562,31 @@
         <v>87.0</v>
       </c>
       <c r="E87" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F87" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G87" t="n" s="25">
-        <v>0.9919109988413215</v>
+        <v>0.982214257951605</v>
       </c>
       <c r="H87" t="n" s="25">
-        <v>0.6863210698113151</v>
+        <v>0.6684317408773734</v>
       </c>
       <c r="I87" t="n" s="25">
-        <v>0.9386700726798812</v>
+        <v>0.9102454072001007</v>
       </c>
       <c r="J87" t="n" s="25">
-        <v>0.9999431940365185</v>
+        <v>0.9993968514345559</v>
       </c>
       <c r="K87" t="n" s="25">
-        <v>0.7552136567814124</v>
+        <v>0.7288573730839817</v>
       </c>
       <c r="L87" t="n" s="25">
-        <v>0.9521879369847472</v>
+        <v>0.9156549631856208</v>
       </c>
       <c r="M87" t="n" s="25">
-        <v>1.0</v>
+        <v>0.41790371644607704</v>
       </c>
       <c r="N87" t="n" s="25">
         <v>0.5</v>
@@ -3597,31 +3597,31 @@
         <v>88.0</v>
       </c>
       <c r="E88" t="n" s="25">
-        <v>0.011935698360920873</v>
+        <v>0.011793616562575807</v>
       </c>
       <c r="F88" t="n" s="25">
-        <v>4.295314750150061E-4</v>
+        <v>3.972531726196152E-4</v>
       </c>
       <c r="G88" t="n" s="25">
-        <v>1.2200257138117469E-4</v>
+        <v>8.416136657183332E-5</v>
       </c>
       <c r="H88" t="n" s="25">
-        <v>3.127604115538043E-4</v>
+        <v>2.8758744637217377E-4</v>
       </c>
       <c r="I88" t="n" s="25">
-        <v>2.0882479638306642E-6</v>
+        <v>1.3949653385762677E-6</v>
       </c>
       <c r="J88" t="n" s="25">
-        <v>2.514788474387591E-6</v>
+        <v>4.1280388556847484E-7</v>
       </c>
       <c r="K88" t="n" s="25">
-        <v>1.8417973953445664E-5</v>
+        <v>1.7103483338062833E-5</v>
       </c>
       <c r="L88" t="n" s="25">
-        <v>1.8160437101889653E-9</v>
+        <v>1.2754674851134265E-9</v>
       </c>
       <c r="M88" t="n" s="25">
-        <v>8.844535213742957E-14</v>
+        <v>2.0727458821180436E-14</v>
       </c>
       <c r="N88" t="n" s="25">
         <v>0.5</v>
@@ -3632,31 +3632,31 @@
         <v>89.0</v>
       </c>
       <c r="E89" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F89" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G89" t="n" s="25">
-        <v>0.8826117108312721</v>
+        <v>0.8216266006279977</v>
       </c>
       <c r="H89" t="n" s="25">
-        <v>0.7473901734439875</v>
+        <v>0.7250601357704712</v>
       </c>
       <c r="I89" t="n" s="25">
-        <v>0.860133392721247</v>
+        <v>0.7861886952719037</v>
       </c>
       <c r="J89" t="n" s="25">
-        <v>0.9972216605186915</v>
+        <v>0.9799368097285519</v>
       </c>
       <c r="K89" t="n" s="25">
-        <v>0.727459810487274</v>
+        <v>0.6773323573300843</v>
       </c>
       <c r="L89" t="n" s="25">
-        <v>0.8203029477914726</v>
+        <v>0.6326357678771252</v>
       </c>
       <c r="M89" t="n" s="25">
-        <v>0.02373964357537223</v>
+        <v>0.002853097144932111</v>
       </c>
       <c r="N89" t="n" s="25">
         <v>0.5</v>
@@ -3667,31 +3667,31 @@
         <v>90.0</v>
       </c>
       <c r="E90" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F90" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G90" t="n" s="25">
-        <v>0.9561516743150207</v>
+        <v>0.9373351350884772</v>
       </c>
       <c r="H90" t="n" s="25">
-        <v>0.7931479581128249</v>
+        <v>0.7684024484998381</v>
       </c>
       <c r="I90" t="n" s="25">
-        <v>0.9965176244597276</v>
+        <v>0.9932253510303038</v>
       </c>
       <c r="J90" t="n" s="25">
-        <v>0.9993477957019218</v>
+        <v>0.996114667341835</v>
       </c>
       <c r="K90" t="n" s="25">
-        <v>0.8894799519673542</v>
+        <v>0.8618192123639207</v>
       </c>
       <c r="L90" t="n" s="25">
-        <v>0.9647123044169714</v>
+        <v>0.9035880612940248</v>
       </c>
       <c r="M90" t="n" s="25">
-        <v>1.0</v>
+        <v>0.027295091692847075</v>
       </c>
       <c r="N90" t="n" s="25">
         <v>0.5</v>
@@ -3702,31 +3702,31 @@
         <v>91.0</v>
       </c>
       <c r="E91" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F91" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G91" t="n" s="25">
-        <v>0.1261200301417754</v>
+        <v>0.10206879685478722</v>
       </c>
       <c r="H91" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.6877785975383235</v>
       </c>
       <c r="I91" t="n" s="25">
-        <v>0.3746407259673934</v>
+        <v>0.2819730063550017</v>
       </c>
       <c r="J91" t="n" s="25">
-        <v>2.289322764525E-6</v>
+        <v>1.1467383735820793E-6</v>
       </c>
       <c r="K91" t="n" s="25">
-        <v>0.4610861219752318</v>
+        <v>0.44133862545335223</v>
       </c>
       <c r="L91" t="n" s="25">
-        <v>2.6904197110731825E-5</v>
+        <v>1.873245919618914E-5</v>
       </c>
       <c r="M91" t="n" s="25">
-        <v>9.754950341449422E-14</v>
+        <v>5.360918585876611E-14</v>
       </c>
       <c r="N91" t="n" s="25">
         <v>0.5</v>
@@ -3737,31 +3737,31 @@
         <v>92.0</v>
       </c>
       <c r="E92" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F92" t="n" s="25">
-        <v>0.4906350126375699</v>
+        <v>0.45938127515117677</v>
       </c>
       <c r="G92" t="n" s="25">
-        <v>0.9565748577566086</v>
+        <v>0.9142004494513908</v>
       </c>
       <c r="H92" t="n" s="25">
-        <v>0.49152946678865916</v>
+        <v>0.46840806368581056</v>
       </c>
       <c r="I92" t="n" s="25">
-        <v>0.7861822917478314</v>
+        <v>0.7014618580599989</v>
       </c>
       <c r="J92" t="n" s="25">
-        <v>0.9996674810467393</v>
+        <v>0.996589744165682</v>
       </c>
       <c r="K92" t="n" s="25">
-        <v>0.3206895938585879</v>
+        <v>0.28945803028053596</v>
       </c>
       <c r="L92" t="n" s="25">
-        <v>0.3078985240476975</v>
+        <v>0.19052245865105769</v>
       </c>
       <c r="M92" t="n" s="25">
-        <v>1.0</v>
+        <v>0.008900560040725864</v>
       </c>
       <c r="N92" t="n" s="25">
         <v>0.5</v>
@@ -3772,31 +3772,31 @@
         <v>93.0</v>
       </c>
       <c r="E93" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F93" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G93" t="n" s="25">
-        <v>0.8063106183976667</v>
+        <v>0.7550930368438377</v>
       </c>
       <c r="H93" t="n" s="25">
-        <v>0.7760576349730679</v>
+        <v>0.7520057770280865</v>
       </c>
       <c r="I93" t="n" s="25">
-        <v>0.9685975397128094</v>
+        <v>0.9448487334342925</v>
       </c>
       <c r="J93" t="n" s="25">
-        <v>0.019789400858036474</v>
+        <v>0.007167035839745819</v>
       </c>
       <c r="K93" t="n" s="25">
-        <v>0.5465557681544919</v>
+        <v>0.5170535349104808</v>
       </c>
       <c r="L93" t="n" s="25">
-        <v>0.003433453476704513</v>
+        <v>0.002064146322239209</v>
       </c>
       <c r="M93" t="n" s="25">
-        <v>1.5244399321830492E-9</v>
+        <v>6.117577397502082E-10</v>
       </c>
       <c r="N93" t="n" s="25">
         <v>0.5</v>
@@ -3807,31 +3807,31 @@
         <v>94.0</v>
       </c>
       <c r="E94" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F94" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G94" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H94" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.6877785975383235</v>
       </c>
       <c r="I94" t="n" s="25">
-        <v>0.9824066548657884</v>
+        <v>0.9724794480464999</v>
       </c>
       <c r="J94" t="n" s="25">
-        <v>0.9999993873374758</v>
+        <v>0.9999911487422105</v>
       </c>
       <c r="K94" t="n" s="25">
-        <v>0.7712721347904135</v>
+        <v>0.744234497904197</v>
       </c>
       <c r="L94" t="n" s="25">
-        <v>0.9919950287995265</v>
+        <v>0.9848130358698438</v>
       </c>
       <c r="M94" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9829634704391826</v>
       </c>
       <c r="N94" t="n" s="25">
         <v>0.5</v>
@@ -3842,31 +3842,31 @@
         <v>95.0</v>
       </c>
       <c r="E95" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F95" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G95" t="n" s="25">
-        <v>0.7709631050587014</v>
+        <v>0.7261189555448353</v>
       </c>
       <c r="H95" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I95" t="n" s="25">
-        <v>0.9587483847354528</v>
+        <v>0.9295363341463753</v>
       </c>
       <c r="J95" t="n" s="25">
-        <v>0.0043667735406767464</v>
+        <v>0.0018986671012242195</v>
       </c>
       <c r="K95" t="n" s="25">
-        <v>0.7470500643763304</v>
+        <v>0.6966747812424635</v>
       </c>
       <c r="L95" t="n" s="25">
-        <v>0.0831594214156148</v>
+        <v>0.031645153885195336</v>
       </c>
       <c r="M95" t="n" s="25">
-        <v>2.2555551012804603E-8</v>
+        <v>6.4143320153575746E-9</v>
       </c>
       <c r="N95" t="n" s="25">
         <v>0.5</v>
@@ -3877,31 +3877,31 @@
         <v>96.0</v>
       </c>
       <c r="E96" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F96" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G96" t="n" s="25">
-        <v>0.9937902296715562</v>
+        <v>0.987760087066508</v>
       </c>
       <c r="H96" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I96" t="n" s="25">
-        <v>0.6433348195637282</v>
+        <v>0.5199734298390672</v>
       </c>
       <c r="J96" t="n" s="25">
-        <v>0.9621132705337101</v>
+        <v>0.7783001702674297</v>
       </c>
       <c r="K96" t="n" s="25">
-        <v>0.2996151932743892</v>
+        <v>0.23592872808726528</v>
       </c>
       <c r="L96" t="n" s="25">
-        <v>0.45884482450550107</v>
+        <v>0.19560481852574285</v>
       </c>
       <c r="M96" t="n" s="25">
-        <v>1.0</v>
+        <v>0.13376948895140556</v>
       </c>
       <c r="N96" t="n" s="25">
         <v>0.5</v>
@@ -3912,31 +3912,31 @@
         <v>97.0</v>
       </c>
       <c r="E97" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F97" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G97" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H97" t="n" s="25">
-        <v>0.6645296339106109</v>
+        <v>0.6484987364743885</v>
       </c>
       <c r="I97" t="n" s="25">
-        <v>0.9632611255839563</v>
+        <v>0.9478926713020526</v>
       </c>
       <c r="J97" t="n" s="25">
-        <v>0.9999456431867668</v>
+        <v>0.999514241920752</v>
       </c>
       <c r="K97" t="n" s="25">
-        <v>0.730280550262652</v>
+        <v>0.7066878469009719</v>
       </c>
       <c r="L97" t="n" s="25">
-        <v>0.9830979778688893</v>
+        <v>0.9717309060311226</v>
       </c>
       <c r="M97" t="n" s="25">
-        <v>1.0</v>
+        <v>0.706082945888187</v>
       </c>
       <c r="N97" t="n" s="25">
         <v>0.5</v>
@@ -3947,31 +3947,31 @@
         <v>98.0</v>
       </c>
       <c r="E98" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F98" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G98" t="n" s="25">
-        <v>0.967368241272414</v>
+        <v>0.9504143333282085</v>
       </c>
       <c r="H98" t="n" s="25">
-        <v>0.7931479581128249</v>
+        <v>0.7684024484998381</v>
       </c>
       <c r="I98" t="n" s="25">
-        <v>0.8858560976633274</v>
+        <v>0.8160482617040542</v>
       </c>
       <c r="J98" t="n" s="25">
-        <v>0.05604848253205297</v>
+        <v>0.018564564171899733</v>
       </c>
       <c r="K98" t="n" s="25">
-        <v>0.2770458941169445</v>
+        <v>0.23904495521919783</v>
       </c>
       <c r="L98" t="n" s="25">
-        <v>0.009549297590820441</v>
+        <v>0.004530891829014106</v>
       </c>
       <c r="M98" t="n" s="25">
-        <v>2.026128026428362E-7</v>
+        <v>5.633179172485296E-8</v>
       </c>
       <c r="N98" t="n" s="25">
         <v>0.5</v>
@@ -3982,31 +3982,31 @@
         <v>99.0</v>
       </c>
       <c r="E99" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F99" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G99" t="n" s="25">
-        <v>0.9964492380804733</v>
+        <v>0.9923127297286655</v>
       </c>
       <c r="H99" t="n" s="25">
-        <v>0.7080395796950708</v>
+        <v>0.6883452507278185</v>
       </c>
       <c r="I99" t="n" s="25">
-        <v>0.9147936038396232</v>
+        <v>0.874825891949268</v>
       </c>
       <c r="J99" t="n" s="25">
-        <v>0.9859831398127968</v>
+        <v>0.9071032221773282</v>
       </c>
       <c r="K99" t="n" s="25">
-        <v>0.6262830631425</v>
+        <v>0.5733012466076771</v>
       </c>
       <c r="L99" t="n" s="25">
-        <v>0.8202402619886521</v>
+        <v>0.6499640188628746</v>
       </c>
       <c r="M99" t="n" s="25">
-        <v>1.0</v>
+        <v>0.15329974387671458</v>
       </c>
       <c r="N99" t="n" s="25">
         <v>0.5</v>
@@ -4017,31 +4017,31 @@
         <v>100.0</v>
       </c>
       <c r="E100" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F100" t="n" s="25">
-        <v>0.3124698260290489</v>
+        <v>0.2891105121337803</v>
       </c>
       <c r="G100" t="n" s="25">
-        <v>0.025589921904829005</v>
+        <v>0.020444469967670423</v>
       </c>
       <c r="H100" t="n" s="25">
-        <v>0.2486506843594088</v>
+        <v>0.23142536546587852</v>
       </c>
       <c r="I100" t="n" s="25">
-        <v>0.008628245105538241</v>
+        <v>0.005817398249408241</v>
       </c>
       <c r="J100" t="n" s="25">
-        <v>6.862493166510637E-8</v>
+        <v>3.558315840370378E-8</v>
       </c>
       <c r="K100" t="n" s="25">
-        <v>0.055839121576074686</v>
+        <v>0.04848514851389633</v>
       </c>
       <c r="L100" t="n" s="25">
-        <v>1.2882429442401058E-6</v>
+        <v>7.112967386160287E-7</v>
       </c>
       <c r="M100" t="n" s="25">
-        <v>7.94884657593656E-15</v>
+        <v>3.493157908819704E-15</v>
       </c>
       <c r="N100" t="n" s="25">
         <v>0.5</v>
@@ -4052,31 +4052,31 @@
         <v>101.0</v>
       </c>
       <c r="E101" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F101" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G101" t="n" s="25">
-        <v>0.9350307038876907</v>
+        <v>0.903419791185603</v>
       </c>
       <c r="H101" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I101" t="n" s="25">
-        <v>0.9887305746128856</v>
+        <v>0.9796227224324021</v>
       </c>
       <c r="J101" t="n" s="25">
-        <v>0.9999413078710491</v>
+        <v>0.9995642682307176</v>
       </c>
       <c r="K101" t="n" s="25">
-        <v>0.9223780837088263</v>
+        <v>0.8955851154788964</v>
       </c>
       <c r="L101" t="n" s="25">
-        <v>0.9976471874206724</v>
+        <v>0.9911551146663894</v>
       </c>
       <c r="M101" t="n" s="25">
-        <v>0.7611576832698437</v>
+        <v>0.2193775252362565</v>
       </c>
       <c r="N101" t="n" s="25">
         <v>0.5</v>
@@ -4087,31 +4087,31 @@
         <v>102.0</v>
       </c>
       <c r="E102" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F102" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G102" t="n" s="25">
-        <v>0.12082500751728972</v>
+        <v>0.09901784886190398</v>
       </c>
       <c r="H102" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.6877785975383235</v>
       </c>
       <c r="I102" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.5886682142372878</v>
       </c>
       <c r="J102" t="n" s="25">
-        <v>2.2307860988812986E-4</v>
+        <v>9.642744268421335E-5</v>
       </c>
       <c r="K102" t="n" s="25">
-        <v>0.7712721347904135</v>
+        <v>0.744234497904197</v>
       </c>
       <c r="L102" t="n" s="25">
-        <v>0.003316820349257813</v>
+        <v>0.0017383703185326893</v>
       </c>
       <c r="M102" t="n" s="25">
-        <v>1.0283808101684813E-10</v>
+        <v>3.8480956505143195E-11</v>
       </c>
       <c r="N102" t="n" s="25">
         <v>0.5</v>
@@ -4122,31 +4122,31 @@
         <v>103.0</v>
       </c>
       <c r="E103" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F103" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G103" t="n" s="25">
-        <v>0.2164555469170474</v>
+        <v>0.1875452861119865</v>
       </c>
       <c r="H103" t="n" s="25">
-        <v>0.7278166630352281</v>
+        <v>0.7067659170765386</v>
       </c>
       <c r="I103" t="n" s="25">
-        <v>0.8787248492521719</v>
+        <v>0.8140981301322731</v>
       </c>
       <c r="J103" t="n" s="25">
-        <v>3.684779740665009E-5</v>
+        <v>1.8374687028779337E-5</v>
       </c>
       <c r="K103" t="n" s="25">
-        <v>0.7055779669554738</v>
+        <v>0.6860376245996933</v>
       </c>
       <c r="L103" t="n" s="25">
-        <v>3.66199912726583E-4</v>
+        <v>2.34621874139802E-4</v>
       </c>
       <c r="M103" t="n" s="25">
-        <v>1.05412390885188E-12</v>
+        <v>5.702040995513602E-13</v>
       </c>
       <c r="N103" t="n" s="25">
         <v>0.5</v>
@@ -4157,31 +4157,31 @@
         <v>104.0</v>
       </c>
       <c r="E104" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F104" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G104" t="n" s="25">
-        <v>0.12082500751728972</v>
+        <v>0.09901784886190398</v>
       </c>
       <c r="H104" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.6877785975383235</v>
       </c>
       <c r="I104" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.5886682142372878</v>
       </c>
       <c r="J104" t="n" s="25">
-        <v>8.924338892993852E-5</v>
+        <v>3.85732087832128E-5</v>
       </c>
       <c r="K104" t="n" s="25">
-        <v>0.6814231609075969</v>
+        <v>0.6638635943228968</v>
       </c>
       <c r="L104" t="n" s="25">
-        <v>3.875761302158121E-4</v>
+        <v>2.6158435901030633E-4</v>
       </c>
       <c r="M104" t="n" s="25">
-        <v>5.391716325540626E-12</v>
+        <v>2.6018715040720334E-12</v>
       </c>
       <c r="N104" t="n" s="25">
         <v>0.5</v>
@@ -4192,31 +4192,31 @@
         <v>105.0</v>
       </c>
       <c r="E105" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F105" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G105" t="n" s="25">
-        <v>0.9163710377794538</v>
+        <v>0.874293728603512</v>
       </c>
       <c r="H105" t="n" s="25">
-        <v>0.7760576349730679</v>
+        <v>0.7520057770280865</v>
       </c>
       <c r="I105" t="n" s="25">
-        <v>0.7434409923258868</v>
+        <v>0.6367473568223515</v>
       </c>
       <c r="J105" t="n" s="25">
-        <v>0.00517098780246016</v>
+        <v>0.0017235594141535862</v>
       </c>
       <c r="K105" t="n" s="25">
-        <v>0.20959577891066525</v>
+        <v>0.1906353488696049</v>
       </c>
       <c r="L105" t="n" s="25">
-        <v>3.5759358780596044E-4</v>
+        <v>2.3135244833236886E-4</v>
       </c>
       <c r="M105" t="n" s="25">
-        <v>7.659949642799314E-10</v>
+        <v>2.8843969635264997E-10</v>
       </c>
       <c r="N105" t="n" s="25">
         <v>0.5</v>
@@ -4227,31 +4227,31 @@
         <v>106.0</v>
       </c>
       <c r="E106" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F106" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G106" t="n" s="25">
-        <v>0.0881637356766583</v>
+        <v>0.07475365191249424</v>
       </c>
       <c r="H106" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.6877785975383235</v>
       </c>
       <c r="I106" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.5886682142372878</v>
       </c>
       <c r="J106" t="n" s="25">
-        <v>1.2938718099686382E-5</v>
+        <v>6.755583018031072E-6</v>
       </c>
       <c r="K106" t="n" s="25">
-        <v>0.7712721347904135</v>
+        <v>0.744234497904197</v>
       </c>
       <c r="L106" t="n" s="25">
-        <v>8.312729746530416E-4</v>
+        <v>4.351599314646771E-4</v>
       </c>
       <c r="M106" t="n" s="25">
-        <v>2.1279757083723755E-12</v>
+        <v>9.402543142436057E-13</v>
       </c>
       <c r="N106" t="n" s="25">
         <v>0.5</v>
@@ -4262,31 +4262,31 @@
         <v>107.0</v>
       </c>
       <c r="E107" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F107" t="n" s="25">
-        <v>0.526162187897677</v>
+        <v>0.49903819290087664</v>
       </c>
       <c r="G107" t="n" s="25">
-        <v>0.4107558758220543</v>
+        <v>0.3748724764624694</v>
       </c>
       <c r="H107" t="n" s="25">
-        <v>0.5986676750808387</v>
+        <v>0.5676560331847015</v>
       </c>
       <c r="I107" t="n" s="25">
-        <v>0.9164128048862324</v>
+        <v>0.8644071321950589</v>
       </c>
       <c r="J107" t="n" s="25">
-        <v>0.0027458617510405874</v>
+        <v>0.0013192226221208137</v>
       </c>
       <c r="K107" t="n" s="25">
-        <v>0.765687999653126</v>
+        <v>0.7022678958303415</v>
       </c>
       <c r="L107" t="n" s="25">
-        <v>0.038239273397323074</v>
+        <v>0.013314830698639283</v>
       </c>
       <c r="M107" t="n" s="25">
-        <v>6.277538900142601E-9</v>
+        <v>1.7990757070635623E-9</v>
       </c>
       <c r="N107" t="n" s="25">
         <v>0.5</v>
@@ -4297,31 +4297,31 @@
         <v>108.0</v>
       </c>
       <c r="E108" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F108" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G108" t="n" s="25">
-        <v>0.9982935842479719</v>
+        <v>0.9959186201439821</v>
       </c>
       <c r="H108" t="n" s="25">
-        <v>0.7682443951464764</v>
+        <v>0.7447493785076836</v>
       </c>
       <c r="I108" t="n" s="25">
-        <v>0.9943333574034744</v>
+        <v>0.9897064843029483</v>
       </c>
       <c r="J108" t="n" s="25">
-        <v>0.9999999984598255</v>
+        <v>0.9999999545564596</v>
       </c>
       <c r="K108" t="n" s="25">
-        <v>0.8807163509401439</v>
+        <v>0.8516755924826085</v>
       </c>
       <c r="L108" t="n" s="25">
-        <v>0.9993663003027099</v>
+        <v>0.9981874622696846</v>
       </c>
       <c r="M108" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999978889657212</v>
       </c>
       <c r="N108" t="n" s="25">
         <v>0.5</v>
@@ -4332,31 +4332,31 @@
         <v>109.0</v>
       </c>
       <c r="E109" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F109" t="n" s="25">
-        <v>0.5678700491476644</v>
+        <v>0.5362558354125222</v>
       </c>
       <c r="G109" t="n" s="25">
-        <v>0.007111526433729501</v>
+        <v>0.006007470143336281</v>
       </c>
       <c r="H109" t="n" s="25">
-        <v>0.37275240245142616</v>
+        <v>0.3562847831148294</v>
       </c>
       <c r="I109" t="n" s="25">
-        <v>0.010355447082307907</v>
+        <v>0.007296079043767101</v>
       </c>
       <c r="J109" t="n" s="25">
-        <v>2.933490374059399E-9</v>
+        <v>1.7000172431275707E-9</v>
       </c>
       <c r="K109" t="n" s="25">
-        <v>0.20043467298168202</v>
+        <v>0.19091474266952227</v>
       </c>
       <c r="L109" t="n" s="25">
-        <v>3.506664450220385E-7</v>
+        <v>2.5964069790056135E-7</v>
       </c>
       <c r="M109" t="n" s="25">
-        <v>6.457861052142447E-17</v>
+        <v>4.03750230658499E-17</v>
       </c>
       <c r="N109" t="n" s="25">
         <v>0.5</v>
@@ -4367,31 +4367,31 @@
         <v>110.0</v>
       </c>
       <c r="E110" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F110" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G110" t="n" s="25">
-        <v>0.45415435285930633</v>
+        <v>0.37493640321131844</v>
       </c>
       <c r="H110" t="n" s="25">
-        <v>0.7278166630352281</v>
+        <v>0.7067659170765386</v>
       </c>
       <c r="I110" t="n" s="25">
-        <v>0.8787248492521719</v>
+        <v>0.8140981301322731</v>
       </c>
       <c r="J110" t="n" s="25">
-        <v>0.11859840773029866</v>
+        <v>0.03224168095351211</v>
       </c>
       <c r="K110" t="n" s="25">
-        <v>0.7055779669554738</v>
+        <v>0.6860376245996933</v>
       </c>
       <c r="L110" t="n" s="25">
-        <v>0.009217960917891498</v>
+        <v>0.005924737403694679</v>
       </c>
       <c r="M110" t="n" s="25">
-        <v>2.0302437673821108E-8</v>
+        <v>6.353085022897847E-9</v>
       </c>
       <c r="N110" t="n" s="25">
         <v>0.5</v>
@@ -4402,31 +4402,31 @@
         <v>111.0</v>
       </c>
       <c r="E111" t="n" s="25">
-        <v>0.5561869019589194</v>
+        <v>0.5504994803630232</v>
       </c>
       <c r="F111" t="n" s="25">
-        <v>0.782243323917483</v>
+        <v>0.7578864870708093</v>
       </c>
       <c r="G111" t="n" s="25">
-        <v>0.0881637356766583</v>
+        <v>0.07475365191249424</v>
       </c>
       <c r="H111" t="n" s="25">
-        <v>0.7073204220921339</v>
+        <v>0.6877785975383235</v>
       </c>
       <c r="I111" t="n" s="25">
-        <v>0.693393249301187</v>
+        <v>0.5886682142372878</v>
       </c>
       <c r="J111" t="n" s="25">
-        <v>5.175527418688726E-6</v>
+        <v>2.7022441603532854E-6</v>
       </c>
       <c r="K111" t="n" s="25">
-        <v>0.6814231609075969</v>
+        <v>0.6638635943228968</v>
       </c>
       <c r="L111" t="n" s="25">
-        <v>9.692220610413343E-5</v>
+        <v>6.540892221582013E-5</v>
       </c>
       <c r="M111" t="n" s="25">
-        <v>1.11568022785359E-13</v>
+        <v>6.357484659713749E-14</v>
       </c>
       <c r="N111" t="n" s="25">
         <v>0.5</v>

--- a/data/new_posteriors/no_elementary_skills/complex_model/leak/unconstrained/results_model2a_leak_unconstrained.xlsx
+++ b/data/new_posteriors/no_elementary_skills/complex_model/leak/unconstrained/results_model2a_leak_unconstrained.xlsx
@@ -648,9 +648,7 @@
       <c r="M3" t="n" s="25">
         <v>0.016818795324507523</v>
       </c>
-      <c r="N3" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N3" s="25"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -683,9 +681,7 @@
       <c r="M4" t="n" s="25">
         <v>0.9994741793896779</v>
       </c>
-      <c r="N4" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N4" s="25"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -718,9 +714,7 @@
       <c r="M5" t="n" s="25">
         <v>0.9999999244938923</v>
       </c>
-      <c r="N5" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N5" s="25"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -753,9 +747,7 @@
       <c r="M6" t="n" s="25">
         <v>0.9999999983543414</v>
       </c>
-      <c r="N6" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N6" s="25"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -788,9 +780,7 @@
       <c r="M7" t="n" s="25">
         <v>0.9999946796529944</v>
       </c>
-      <c r="N7" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N7" s="25"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -823,9 +813,7 @@
       <c r="M8" t="n" s="25">
         <v>0.6365450306028531</v>
       </c>
-      <c r="N8" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N8" s="25"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -858,9 +846,7 @@
       <c r="M9" t="n" s="25">
         <v>0.9999999999304292</v>
       </c>
-      <c r="N9" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N9" s="25"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -893,9 +879,7 @@
       <c r="M10" t="n" s="25">
         <v>0.9999976624928194</v>
       </c>
-      <c r="N10" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N10" s="25"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -928,9 +912,7 @@
       <c r="M11" t="n" s="25">
         <v>0.9997680379196029</v>
       </c>
-      <c r="N11" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N11" s="25"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -963,9 +945,7 @@
       <c r="M12" t="n" s="25">
         <v>0.9999999999304292</v>
       </c>
-      <c r="N12" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N12" s="25"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -998,9 +978,7 @@
       <c r="M13" t="n" s="25">
         <v>0.010177661177066219</v>
       </c>
-      <c r="N13" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N13" s="25"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1033,9 +1011,7 @@
       <c r="M14" t="n" s="25">
         <v>1.0053530454647334E-7</v>
       </c>
-      <c r="N14" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N14" s="25"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1068,9 +1044,7 @@
       <c r="M15" t="n" s="25">
         <v>0.0075768362027123625</v>
       </c>
-      <c r="N15" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N15" s="25"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1103,9 +1077,7 @@
       <c r="M16" t="n" s="25">
         <v>0.996605532927706</v>
       </c>
-      <c r="N16" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N16" s="25"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1138,9 +1110,7 @@
       <c r="M17" t="n" s="25">
         <v>0.9999978525573912</v>
       </c>
-      <c r="N17" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N17" s="25"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1173,9 +1143,7 @@
       <c r="M18" t="n" s="25">
         <v>0.9999999999892084</v>
       </c>
-      <c r="N18" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N18" s="25"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1208,9 +1176,7 @@
       <c r="M19" t="n" s="25">
         <v>0.9999999983543414</v>
       </c>
-      <c r="N19" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N19" s="25"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1243,9 +1209,7 @@
       <c r="M20" t="n" s="25">
         <v>0.9999999244938923</v>
       </c>
-      <c r="N20" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N20" s="25"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1278,9 +1242,7 @@
       <c r="M21" t="n" s="25">
         <v>0.9999999999996725</v>
       </c>
-      <c r="N21" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N21" s="25"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1313,9 +1275,7 @@
       <c r="M22" t="n" s="25">
         <v>0.9999999977080539</v>
       </c>
-      <c r="N22" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N22" s="25"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1348,9 +1308,7 @@
       <c r="M23" t="n" s="25">
         <v>0.9999999996444827</v>
       </c>
-      <c r="N23" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N23" s="25"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1383,9 +1341,7 @@
       <c r="M24" t="n" s="25">
         <v>0.9999999977080539</v>
       </c>
-      <c r="N24" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N24" s="25"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1418,9 +1374,7 @@
       <c r="M25" t="n" s="25">
         <v>0.9999990800867057</v>
       </c>
-      <c r="N25" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N25" s="25"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1453,9 +1407,7 @@
       <c r="M26" t="n" s="25">
         <v>7.262235665687689E-7</v>
       </c>
-      <c r="N26" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N26" s="25"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1488,9 +1440,7 @@
       <c r="M27" t="n" s="25">
         <v>5.3428866314159455E-9</v>
       </c>
-      <c r="N27" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N27" s="25"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1523,9 +1473,7 @@
       <c r="M28" t="n" s="25">
         <v>0.9999692302561395</v>
       </c>
-      <c r="N28" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N28" s="25"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1558,9 +1506,7 @@
       <c r="M29" t="n" s="25">
         <v>0.7758954924332844</v>
       </c>
-      <c r="N29" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N29" s="25"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1593,9 +1539,7 @@
       <c r="M30" t="n" s="25">
         <v>8.656658050518588E-14</v>
       </c>
-      <c r="N30" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N30" s="25"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1628,9 +1572,7 @@
       <c r="M31" t="n" s="25">
         <v>0.999999999950047</v>
       </c>
-      <c r="N31" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N31" s="25"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1663,9 +1605,7 @@
       <c r="M32" t="n" s="25">
         <v>2.0133898887899407E-14</v>
       </c>
-      <c r="N32" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N32" s="25"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1698,9 +1638,7 @@
       <c r="M33" t="n" s="25">
         <v>5.902378625644549E-19</v>
       </c>
-      <c r="N33" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N33" s="25"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1733,9 +1671,7 @@
       <c r="M34" t="n" s="25">
         <v>9.40254314243606E-13</v>
       </c>
-      <c r="N34" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N34" s="25"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1768,9 +1704,7 @@
       <c r="M35" t="n" s="25">
         <v>7.633030215107939E-24</v>
       </c>
-      <c r="N35" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N35" s="25"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1803,9 +1737,7 @@
       <c r="M36" t="n" s="25">
         <v>6.357484659713749E-14</v>
       </c>
-      <c r="N36" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N36" s="25"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1838,9 +1770,7 @@
       <c r="M37" t="n" s="25">
         <v>9.40254314243606E-13</v>
       </c>
-      <c r="N37" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N37" s="25"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1873,9 +1803,7 @@
       <c r="M38" t="n" s="25">
         <v>9.44493566819113E-6</v>
       </c>
-      <c r="N38" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N38" s="25"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1908,9 +1836,7 @@
       <c r="M39" t="n" s="25">
         <v>9.402543142436057E-13</v>
       </c>
-      <c r="N39" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N39" s="25"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1943,9 +1869,7 @@
       <c r="M40" t="n" s="25">
         <v>1.1832731816668732E-13</v>
       </c>
-      <c r="N40" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N40" s="25"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1978,9 +1902,7 @@
       <c r="M41" t="n" s="25">
         <v>0.9999994604156995</v>
       </c>
-      <c r="N41" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N41" s="25"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2013,9 +1935,7 @@
       <c r="M42" t="n" s="25">
         <v>1.338702027994931E-18</v>
       </c>
-      <c r="N42" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N42" s="25"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2048,9 +1968,7 @@
       <c r="M43" t="n" s="25">
         <v>7.322602090179903E-13</v>
       </c>
-      <c r="N43" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N43" s="25"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2083,9 +2001,7 @@
       <c r="M44" t="n" s="25">
         <v>2.1010382923556516E-11</v>
       </c>
-      <c r="N44" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N44" s="25"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2118,9 +2034,7 @@
       <c r="M45" t="n" s="25">
         <v>5.265418311636661E-12</v>
       </c>
-      <c r="N45" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N45" s="25"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2153,9 +2067,7 @@
       <c r="M46" t="n" s="25">
         <v>3.2312342550813804E-31</v>
       </c>
-      <c r="N46" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N46" s="25"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2188,9 +2100,7 @@
       <c r="M47" t="n" s="25">
         <v>1.388815880856394E-19</v>
       </c>
-      <c r="N47" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N47" s="25"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2223,9 +2133,7 @@
       <c r="M48" t="n" s="25">
         <v>7.508896722722543E-19</v>
       </c>
-      <c r="N48" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N48" s="25"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2258,9 +2166,7 @@
       <c r="M49" t="n" s="25">
         <v>9.010299983770042E-16</v>
       </c>
-      <c r="N49" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N49" s="25"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2293,9 +2199,7 @@
       <c r="M50" t="n" s="25">
         <v>2.8325724167675985E-20</v>
       </c>
-      <c r="N50" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N50" s="25"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2328,9 +2232,7 @@
       <c r="M51" t="n" s="25">
         <v>6.225658071037053E-28</v>
       </c>
-      <c r="N51" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N51" s="25"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2363,9 +2265,7 @@
       <c r="M52" t="n" s="25">
         <v>3.614871547371426E-14</v>
       </c>
-      <c r="N52" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N52" s="25"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2398,9 +2298,7 @@
       <c r="M53" t="n" s="25">
         <v>0.051368075824870504</v>
       </c>
-      <c r="N53" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N53" s="25"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2433,9 +2331,7 @@
       <c r="M54" t="n" s="25">
         <v>0.9921634158551558</v>
       </c>
-      <c r="N54" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N54" s="25"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2468,9 +2364,7 @@
       <c r="M55" t="n" s="25">
         <v>3.7917684901534626E-6</v>
       </c>
-      <c r="N55" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N55" s="25"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2503,9 +2397,7 @@
       <c r="M56" t="n" s="25">
         <v>0.9999999983543414</v>
       </c>
-      <c r="N56" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N56" s="25"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2538,9 +2430,7 @@
       <c r="M57" t="n" s="25">
         <v>3.0515895065380544E-6</v>
       </c>
-      <c r="N57" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N57" s="25"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2573,9 +2463,7 @@
       <c r="M58" t="n" s="25">
         <v>0.6365450306028531</v>
       </c>
-      <c r="N58" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N58" s="25"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2608,9 +2496,7 @@
       <c r="M59" t="n" s="25">
         <v>0.0028319689299762803</v>
       </c>
-      <c r="N59" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N59" s="25"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2643,9 +2529,7 @@
       <c r="M60" t="n" s="25">
         <v>0.99993045855249</v>
       </c>
-      <c r="N60" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N60" s="25"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2678,9 +2562,7 @@
       <c r="M61" t="n" s="25">
         <v>0.2193775252362565</v>
       </c>
-      <c r="N61" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N61" s="25"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2713,9 +2595,7 @@
       <c r="M62" t="n" s="25">
         <v>0.7150081493609575</v>
       </c>
-      <c r="N62" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N62" s="25"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2748,9 +2628,7 @@
       <c r="M63" t="n" s="25">
         <v>0.8765609565746363</v>
       </c>
-      <c r="N63" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N63" s="25"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2783,9 +2661,7 @@
       <c r="M64" t="n" s="25">
         <v>0.9999229986653353</v>
       </c>
-      <c r="N64" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N64" s="25"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2818,9 +2694,7 @@
       <c r="M65" t="n" s="25">
         <v>0.9262488774075374</v>
       </c>
-      <c r="N65" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N65" s="25"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2853,9 +2727,7 @@
       <c r="M66" t="n" s="25">
         <v>1.6523928505441713E-15</v>
       </c>
-      <c r="N66" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N66" s="25"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2888,9 +2760,7 @@
       <c r="M67" t="n" s="25">
         <v>1.4323781794503155E-6</v>
       </c>
-      <c r="N67" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N67" s="25"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2923,9 +2793,7 @@
       <c r="M68" t="n" s="25">
         <v>0.03383531575204838</v>
       </c>
-      <c r="N68" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N68" s="25"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2958,9 +2826,7 @@
       <c r="M69" t="n" s="25">
         <v>3.521847985901142E-18</v>
       </c>
-      <c r="N69" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N69" s="25"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2993,9 +2859,7 @@
       <c r="M70" t="n" s="25">
         <v>6.933795801749613E-9</v>
       </c>
-      <c r="N70" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N70" s="25"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3028,9 +2892,7 @@
       <c r="M71" t="n" s="25">
         <v>7.661214097570144E-15</v>
       </c>
-      <c r="N71" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N71" s="25"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3063,9 +2925,7 @@
       <c r="M72" t="n" s="25">
         <v>1.5214369938626228E-8</v>
       </c>
-      <c r="N72" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N72" s="25"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3098,9 +2958,7 @@
       <c r="M73" t="n" s="25">
         <v>2.0546547709282246E-16</v>
       </c>
-      <c r="N73" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N73" s="25"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3133,9 +2991,7 @@
       <c r="M74" t="n" s="25">
         <v>0.9829634704391826</v>
       </c>
-      <c r="N74" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N74" s="25"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3168,9 +3024,7 @@
       <c r="M75" t="n" s="25">
         <v>0.514173372980855</v>
       </c>
-      <c r="N75" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N75" s="25"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3203,9 +3057,7 @@
       <c r="M76" t="n" s="25">
         <v>2.282206452539106E-8</v>
       </c>
-      <c r="N76" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N76" s="25"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3238,9 +3090,7 @@
       <c r="M77" t="n" s="25">
         <v>3.974171555546736E-18</v>
       </c>
-      <c r="N77" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N77" s="25"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3273,9 +3123,7 @@
       <c r="M78" t="n" s="25">
         <v>1.136028489473079E-6</v>
       </c>
-      <c r="N78" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N78" s="25"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3308,9 +3156,7 @@
       <c r="M79" t="n" s="25">
         <v>2.3072926624994347E-7</v>
       </c>
-      <c r="N79" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N79" s="25"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3343,9 +3189,7 @@
       <c r="M80" t="n" s="25">
         <v>1.0491688014940633E-12</v>
       </c>
-      <c r="N80" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N80" s="25"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3378,9 +3222,7 @@
       <c r="M81" t="n" s="25">
         <v>7.922038166084398E-11</v>
       </c>
-      <c r="N81" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N81" s="25"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3413,9 +3255,7 @@
       <c r="M82" t="n" s="25">
         <v>2.6018715040720334E-12</v>
       </c>
-      <c r="N82" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N82" s="25"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3448,9 +3288,7 @@
       <c r="M83" t="n" s="25">
         <v>6.357484659713749E-14</v>
       </c>
-      <c r="N83" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N83" s="25"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3483,9 +3321,7 @@
       <c r="M84" t="n" s="25">
         <v>0.9813899466788911</v>
       </c>
-      <c r="N84" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N84" s="25"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3518,9 +3354,7 @@
       <c r="M85" t="n" s="25">
         <v>0.9994741793896779</v>
       </c>
-      <c r="N85" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N85" s="25"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3553,9 +3387,7 @@
       <c r="M86" t="n" s="25">
         <v>0.0031779058818623474</v>
       </c>
-      <c r="N86" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N86" s="25"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3588,9 +3420,7 @@
       <c r="M87" t="n" s="25">
         <v>0.41790371644607704</v>
       </c>
-      <c r="N87" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N87" s="25"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3623,9 +3453,7 @@
       <c r="M88" t="n" s="25">
         <v>2.0727458821180436E-14</v>
       </c>
-      <c r="N88" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N88" s="25"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3658,9 +3486,7 @@
       <c r="M89" t="n" s="25">
         <v>0.002853097144932111</v>
       </c>
-      <c r="N89" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N89" s="25"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3693,9 +3519,7 @@
       <c r="M90" t="n" s="25">
         <v>0.027295091692847075</v>
       </c>
-      <c r="N90" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N90" s="25"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3728,9 +3552,7 @@
       <c r="M91" t="n" s="25">
         <v>5.360918585876611E-14</v>
       </c>
-      <c r="N91" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N91" s="25"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3763,9 +3585,7 @@
       <c r="M92" t="n" s="25">
         <v>0.008900560040725864</v>
       </c>
-      <c r="N92" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N92" s="25"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3798,9 +3618,7 @@
       <c r="M93" t="n" s="25">
         <v>6.117577397502082E-10</v>
       </c>
-      <c r="N93" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N93" s="25"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3833,9 +3651,7 @@
       <c r="M94" t="n" s="25">
         <v>0.9829634704391826</v>
       </c>
-      <c r="N94" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N94" s="25"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3868,9 +3684,7 @@
       <c r="M95" t="n" s="25">
         <v>6.4143320153575746E-9</v>
       </c>
-      <c r="N95" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N95" s="25"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3903,9 +3717,7 @@
       <c r="M96" t="n" s="25">
         <v>0.13376948895140556</v>
       </c>
-      <c r="N96" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N96" s="25"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3938,9 +3750,7 @@
       <c r="M97" t="n" s="25">
         <v>0.706082945888187</v>
       </c>
-      <c r="N97" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N97" s="25"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3973,9 +3783,7 @@
       <c r="M98" t="n" s="25">
         <v>5.633179172485296E-8</v>
       </c>
-      <c r="N98" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N98" s="25"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4008,9 +3816,7 @@
       <c r="M99" t="n" s="25">
         <v>0.15329974387671458</v>
       </c>
-      <c r="N99" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N99" s="25"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4043,9 +3849,7 @@
       <c r="M100" t="n" s="25">
         <v>3.493157908819704E-15</v>
       </c>
-      <c r="N100" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N100" s="25"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4078,9 +3882,7 @@
       <c r="M101" t="n" s="25">
         <v>0.2193775252362565</v>
       </c>
-      <c r="N101" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N101" s="25"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4113,9 +3915,7 @@
       <c r="M102" t="n" s="25">
         <v>3.8480956505143195E-11</v>
       </c>
-      <c r="N102" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N102" s="25"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4148,9 +3948,7 @@
       <c r="M103" t="n" s="25">
         <v>5.702040995513602E-13</v>
       </c>
-      <c r="N103" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N103" s="25"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4183,9 +3981,7 @@
       <c r="M104" t="n" s="25">
         <v>2.6018715040720334E-12</v>
       </c>
-      <c r="N104" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N104" s="25"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4218,9 +4014,7 @@
       <c r="M105" t="n" s="25">
         <v>2.8843969635264997E-10</v>
       </c>
-      <c r="N105" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N105" s="25"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4253,9 +4047,7 @@
       <c r="M106" t="n" s="25">
         <v>9.402543142436057E-13</v>
       </c>
-      <c r="N106" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N106" s="25"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -4288,9 +4080,7 @@
       <c r="M107" t="n" s="25">
         <v>1.7990757070635623E-9</v>
       </c>
-      <c r="N107" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N107" s="25"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4323,9 +4113,7 @@
       <c r="M108" t="n" s="25">
         <v>0.9999978889657212</v>
       </c>
-      <c r="N108" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N108" s="25"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4358,9 +4146,7 @@
       <c r="M109" t="n" s="25">
         <v>4.03750230658499E-17</v>
       </c>
-      <c r="N109" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N109" s="25"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4393,9 +4179,7 @@
       <c r="M110" t="n" s="25">
         <v>6.353085022897847E-9</v>
       </c>
-      <c r="N110" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N110" s="25"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4428,9 +4212,7 @@
       <c r="M111" t="n" s="25">
         <v>6.357484659713749E-14</v>
       </c>
-      <c r="N111" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N111" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
